--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR006_Date_Small_Size.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR006_Date_Small_Size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Source\00_UK\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D85C9-62A8-48CA-B774-6AB36356B739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AC63A7-31D5-4659-B33E-31523EF8A21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="914" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="★日別勤務表-個人1行" sheetId="10" r:id="rId1"/>
@@ -2049,10 +2049,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -2084,15 +2084,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2100,13 +2091,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2417,10 +2417,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2511,6 +2511,12 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2617,15 +2623,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -2761,6 +2758,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -46344,17 +46344,15 @@
   </sheetPr>
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" style="5" customWidth="1"/>
-    <col min="4" max="43" width="2.7109375" style="5" customWidth="1"/>
-    <col min="44" max="47" width="3.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="47" width="2.7109375" style="5" customWidth="1"/>
     <col min="48" max="16384" width="3.140625" style="5"/>
   </cols>
   <sheetData>
@@ -46584,7 +46582,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.43307086614173201" bottom="3.9370078740157501E-2" header="0.118110236220472" footer="0.118110236220472"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;5ABC&amp;C&amp;"源ノ角ゴシック Normal,Bold"&amp;11日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;5&amp;D　&amp;T　
@@ -46599,8 +46597,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AX77"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="BN25" sqref="BN25"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A46" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:AU53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -46714,9 +46712,9 @@
       <c r="AU2" s="6"/>
     </row>
     <row r="3" spans="1:50" ht="15" customHeight="1">
-      <c r="A3" s="216"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="213"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="17"/>
@@ -46763,9 +46761,9 @@
       <c r="AU3" s="21"/>
     </row>
     <row r="4" spans="1:50" ht="15" customHeight="1">
-      <c r="A4" s="217"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="214"/>
+      <c r="A4" s="216"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
       <c r="F4" s="32"/>
@@ -46812,58 +46810,58 @@
       <c r="AU4" s="34"/>
     </row>
     <row r="5" spans="1:50" ht="15" customHeight="1">
-      <c r="A5" s="217"/>
-      <c r="B5" s="217"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="39"/>
+      <c r="A5" s="216"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
       <c r="AR5" s="32"/>
       <c r="AS5" s="34"/>
       <c r="AT5" s="34"/>
       <c r="AU5" s="34"/>
     </row>
     <row r="6" spans="1:50" ht="15" customHeight="1">
-      <c r="A6" s="217"/>
-      <c r="B6" s="217"/>
-      <c r="C6" s="214"/>
+      <c r="A6" s="216"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
       <c r="F6" s="30"/>
@@ -46910,9 +46908,9 @@
       <c r="AU6" s="34"/>
     </row>
     <row r="7" spans="1:50" ht="15" customHeight="1">
-      <c r="A7" s="217"/>
-      <c r="B7" s="217"/>
-      <c r="C7" s="214"/>
+      <c r="A7" s="216"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
@@ -46959,9 +46957,9 @@
       <c r="AU7" s="34"/>
     </row>
     <row r="8" spans="1:50" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="218"/>
-      <c r="B8" s="218"/>
-      <c r="C8" s="215"/>
+      <c r="A8" s="217"/>
+      <c r="B8" s="217"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
       <c r="F8" s="19"/>
@@ -47002,10 +47000,10 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="19"/>
       <c r="AQ8" s="20"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
     </row>
     <row r="9" spans="1:50" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="146"/>
@@ -47057,76 +47055,76 @@
       <c r="AU9" s="146"/>
     </row>
     <row r="10" spans="1:50" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="175"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="175"/>
-      <c r="Y10" s="175"/>
-      <c r="Z10" s="175"/>
-      <c r="AA10" s="175"/>
-      <c r="AB10" s="175"/>
-      <c r="AC10" s="175"/>
-      <c r="AD10" s="175"/>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="175"/>
-      <c r="AG10" s="175"/>
-      <c r="AH10" s="175"/>
-      <c r="AI10" s="175"/>
-      <c r="AJ10" s="175"/>
-      <c r="AK10" s="175"/>
-      <c r="AL10" s="175"/>
-      <c r="AM10" s="175"/>
-      <c r="AN10" s="175"/>
-      <c r="AO10" s="175"/>
-      <c r="AP10" s="175"/>
-      <c r="AQ10" s="175"/>
-      <c r="AR10" s="175"/>
-      <c r="AS10" s="175"/>
-      <c r="AT10" s="175"/>
-      <c r="AU10" s="175"/>
+      <c r="A10" s="260"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="260"/>
+      <c r="H10" s="260"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="260"/>
+      <c r="K10" s="260"/>
+      <c r="L10" s="260"/>
+      <c r="M10" s="260"/>
+      <c r="N10" s="260"/>
+      <c r="O10" s="260"/>
+      <c r="P10" s="260"/>
+      <c r="Q10" s="260"/>
+      <c r="R10" s="260"/>
+      <c r="S10" s="260"/>
+      <c r="T10" s="260"/>
+      <c r="U10" s="260"/>
+      <c r="V10" s="260"/>
+      <c r="W10" s="260"/>
+      <c r="X10" s="260"/>
+      <c r="Y10" s="260"/>
+      <c r="Z10" s="260"/>
+      <c r="AA10" s="260"/>
+      <c r="AB10" s="260"/>
+      <c r="AC10" s="260"/>
+      <c r="AD10" s="260"/>
+      <c r="AE10" s="260"/>
+      <c r="AF10" s="260"/>
+      <c r="AG10" s="260"/>
+      <c r="AH10" s="260"/>
+      <c r="AI10" s="260"/>
+      <c r="AJ10" s="260"/>
+      <c r="AK10" s="260"/>
+      <c r="AL10" s="260"/>
+      <c r="AM10" s="260"/>
+      <c r="AN10" s="260"/>
+      <c r="AO10" s="260"/>
+      <c r="AP10" s="260"/>
+      <c r="AQ10" s="260"/>
+      <c r="AR10" s="260"/>
+      <c r="AS10" s="260"/>
+      <c r="AT10" s="260"/>
+      <c r="AU10" s="260"/>
     </row>
     <row r="11" spans="1:50" ht="15" customHeight="1">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="219"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="219"/>
-      <c r="N11" s="219"/>
-      <c r="O11" s="219"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="221"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="218"/>
+      <c r="O11" s="218"/>
+      <c r="P11" s="219"/>
+      <c r="Q11" s="220"/>
       <c r="R11" s="106"/>
       <c r="S11" s="107"/>
-      <c r="T11" s="220"/>
-      <c r="U11" s="221"/>
+      <c r="T11" s="219"/>
+      <c r="U11" s="220"/>
       <c r="V11" s="106"/>
       <c r="W11" s="107"/>
       <c r="X11" s="106"/>
@@ -47160,46 +47158,46 @@
     <row r="12" spans="1:50" ht="15" customHeight="1">
       <c r="A12" s="45"/>
       <c r="B12" s="45"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="222"/>
-      <c r="J12" s="222"/>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="222"/>
-      <c r="N12" s="222"/>
-      <c r="O12" s="222"/>
-      <c r="P12" s="224"/>
-      <c r="Q12" s="225"/>
-      <c r="R12" s="223"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="221"/>
+      <c r="K12" s="221"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="221"/>
+      <c r="N12" s="221"/>
+      <c r="O12" s="221"/>
+      <c r="P12" s="223"/>
+      <c r="Q12" s="224"/>
+      <c r="R12" s="222"/>
       <c r="S12" s="117"/>
-      <c r="T12" s="224"/>
-      <c r="U12" s="225"/>
-      <c r="V12" s="223"/>
+      <c r="T12" s="223"/>
+      <c r="U12" s="224"/>
+      <c r="V12" s="222"/>
       <c r="W12" s="117"/>
-      <c r="X12" s="223"/>
+      <c r="X12" s="222"/>
       <c r="Y12" s="117"/>
-      <c r="Z12" s="223"/>
+      <c r="Z12" s="222"/>
       <c r="AA12" s="117"/>
-      <c r="AB12" s="223"/>
+      <c r="AB12" s="222"/>
       <c r="AC12" s="117"/>
-      <c r="AD12" s="223"/>
+      <c r="AD12" s="222"/>
       <c r="AE12" s="117"/>
-      <c r="AF12" s="223"/>
+      <c r="AF12" s="222"/>
       <c r="AG12" s="117"/>
-      <c r="AH12" s="223"/>
+      <c r="AH12" s="222"/>
       <c r="AI12" s="117"/>
-      <c r="AJ12" s="223"/>
+      <c r="AJ12" s="222"/>
       <c r="AK12" s="117"/>
-      <c r="AL12" s="223"/>
+      <c r="AL12" s="222"/>
       <c r="AM12" s="117"/>
-      <c r="AN12" s="223"/>
+      <c r="AN12" s="222"/>
       <c r="AO12" s="117"/>
-      <c r="AP12" s="223"/>
+      <c r="AP12" s="222"/>
       <c r="AQ12" s="117"/>
       <c r="AR12" s="98"/>
       <c r="AS12" s="99"/>
@@ -47212,46 +47210,46 @@
     <row r="13" spans="1:50" ht="15" customHeight="1">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="197"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="P13" s="198"/>
-      <c r="Q13" s="199"/>
-      <c r="R13" s="200"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="199"/>
+      <c r="O13" s="199"/>
+      <c r="P13" s="200"/>
+      <c r="Q13" s="201"/>
+      <c r="R13" s="202"/>
       <c r="S13" s="115"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="199"/>
-      <c r="V13" s="200"/>
+      <c r="T13" s="200"/>
+      <c r="U13" s="201"/>
+      <c r="V13" s="202"/>
       <c r="W13" s="115"/>
-      <c r="X13" s="200"/>
+      <c r="X13" s="202"/>
       <c r="Y13" s="115"/>
-      <c r="Z13" s="200"/>
+      <c r="Z13" s="202"/>
       <c r="AA13" s="115"/>
-      <c r="AB13" s="200"/>
+      <c r="AB13" s="202"/>
       <c r="AC13" s="115"/>
-      <c r="AD13" s="200"/>
+      <c r="AD13" s="202"/>
       <c r="AE13" s="115"/>
-      <c r="AF13" s="200"/>
+      <c r="AF13" s="202"/>
       <c r="AG13" s="115"/>
-      <c r="AH13" s="200"/>
+      <c r="AH13" s="202"/>
       <c r="AI13" s="115"/>
-      <c r="AJ13" s="200"/>
+      <c r="AJ13" s="202"/>
       <c r="AK13" s="115"/>
-      <c r="AL13" s="200"/>
+      <c r="AL13" s="202"/>
       <c r="AM13" s="115"/>
-      <c r="AN13" s="200"/>
+      <c r="AN13" s="202"/>
       <c r="AO13" s="115"/>
-      <c r="AP13" s="200"/>
+      <c r="AP13" s="202"/>
       <c r="AQ13" s="115"/>
       <c r="AR13" s="144"/>
       <c r="AS13" s="145"/>
@@ -47264,25 +47262,25 @@
     <row r="14" spans="1:50" ht="15" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="226"/>
-      <c r="E14" s="226"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="226"/>
-      <c r="I14" s="226"/>
-      <c r="J14" s="226"/>
-      <c r="K14" s="226"/>
-      <c r="L14" s="226"/>
-      <c r="M14" s="226"/>
-      <c r="N14" s="226"/>
-      <c r="O14" s="226"/>
-      <c r="P14" s="227"/>
-      <c r="Q14" s="228"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="225"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="225"/>
+      <c r="G14" s="225"/>
+      <c r="H14" s="225"/>
+      <c r="I14" s="225"/>
+      <c r="J14" s="225"/>
+      <c r="K14" s="225"/>
+      <c r="L14" s="225"/>
+      <c r="M14" s="225"/>
+      <c r="N14" s="225"/>
+      <c r="O14" s="225"/>
+      <c r="P14" s="226"/>
+      <c r="Q14" s="227"/>
       <c r="R14" s="129"/>
       <c r="S14" s="130"/>
-      <c r="T14" s="227"/>
-      <c r="U14" s="228"/>
+      <c r="T14" s="226"/>
+      <c r="U14" s="227"/>
       <c r="V14" s="129"/>
       <c r="W14" s="130"/>
       <c r="X14" s="129"/>
@@ -47316,47 +47314,47 @@
     <row r="15" spans="1:50" ht="15" customHeight="1">
       <c r="A15" s="48"/>
       <c r="B15" s="48"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="229"/>
-      <c r="G15" s="229"/>
-      <c r="H15" s="229"/>
-      <c r="I15" s="229"/>
-      <c r="J15" s="229"/>
-      <c r="K15" s="229"/>
-      <c r="L15" s="229"/>
-      <c r="M15" s="229"/>
-      <c r="N15" s="229"/>
-      <c r="O15" s="229"/>
-      <c r="P15" s="230"/>
-      <c r="Q15" s="231"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="228"/>
+      <c r="J15" s="228"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="228"/>
+      <c r="M15" s="228"/>
+      <c r="N15" s="228"/>
+      <c r="O15" s="228"/>
+      <c r="P15" s="229"/>
+      <c r="Q15" s="230"/>
       <c r="R15" s="116"/>
-      <c r="S15" s="212"/>
-      <c r="T15" s="230"/>
-      <c r="U15" s="231"/>
+      <c r="S15" s="214"/>
+      <c r="T15" s="229"/>
+      <c r="U15" s="230"/>
       <c r="V15" s="116"/>
-      <c r="W15" s="212"/>
+      <c r="W15" s="214"/>
       <c r="X15" s="116"/>
-      <c r="Y15" s="212"/>
+      <c r="Y15" s="214"/>
       <c r="Z15" s="116"/>
-      <c r="AA15" s="212"/>
+      <c r="AA15" s="214"/>
       <c r="AB15" s="116"/>
-      <c r="AC15" s="212"/>
+      <c r="AC15" s="214"/>
       <c r="AD15" s="116"/>
-      <c r="AE15" s="212"/>
+      <c r="AE15" s="214"/>
       <c r="AF15" s="116"/>
-      <c r="AG15" s="212"/>
+      <c r="AG15" s="214"/>
       <c r="AH15" s="116"/>
-      <c r="AI15" s="212"/>
+      <c r="AI15" s="214"/>
       <c r="AJ15" s="116"/>
-      <c r="AK15" s="212"/>
+      <c r="AK15" s="214"/>
       <c r="AL15" s="116"/>
-      <c r="AM15" s="212"/>
+      <c r="AM15" s="214"/>
       <c r="AN15" s="116"/>
-      <c r="AO15" s="212"/>
+      <c r="AO15" s="214"/>
       <c r="AP15" s="116"/>
-      <c r="AQ15" s="212"/>
+      <c r="AQ15" s="214"/>
       <c r="AR15" s="108"/>
       <c r="AS15" s="109"/>
       <c r="AT15" s="109"/>
@@ -47368,47 +47366,47 @@
     <row r="16" spans="1:50" ht="15" customHeight="1">
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="207"/>
-      <c r="K16" s="207"/>
-      <c r="L16" s="207"/>
-      <c r="M16" s="207"/>
-      <c r="N16" s="207"/>
-      <c r="O16" s="207"/>
-      <c r="P16" s="208"/>
-      <c r="Q16" s="209"/>
-      <c r="R16" s="210"/>
-      <c r="S16" s="211"/>
-      <c r="T16" s="208"/>
-      <c r="U16" s="209"/>
-      <c r="V16" s="210"/>
-      <c r="W16" s="211"/>
-      <c r="X16" s="210"/>
-      <c r="Y16" s="211"/>
-      <c r="Z16" s="210"/>
-      <c r="AA16" s="211"/>
-      <c r="AB16" s="210"/>
-      <c r="AC16" s="211"/>
-      <c r="AD16" s="210"/>
-      <c r="AE16" s="211"/>
-      <c r="AF16" s="210"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="210"/>
-      <c r="AI16" s="211"/>
-      <c r="AJ16" s="210"/>
-      <c r="AK16" s="211"/>
-      <c r="AL16" s="210"/>
-      <c r="AM16" s="211"/>
-      <c r="AN16" s="210"/>
-      <c r="AO16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
+      <c r="O16" s="209"/>
+      <c r="P16" s="210"/>
+      <c r="Q16" s="211"/>
+      <c r="R16" s="212"/>
+      <c r="S16" s="213"/>
+      <c r="T16" s="210"/>
+      <c r="U16" s="211"/>
+      <c r="V16" s="212"/>
+      <c r="W16" s="213"/>
+      <c r="X16" s="212"/>
+      <c r="Y16" s="213"/>
+      <c r="Z16" s="212"/>
+      <c r="AA16" s="213"/>
+      <c r="AB16" s="212"/>
+      <c r="AC16" s="213"/>
+      <c r="AD16" s="212"/>
+      <c r="AE16" s="213"/>
+      <c r="AF16" s="212"/>
+      <c r="AG16" s="213"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="213"/>
+      <c r="AJ16" s="212"/>
+      <c r="AK16" s="213"/>
+      <c r="AL16" s="212"/>
+      <c r="AM16" s="213"/>
+      <c r="AN16" s="212"/>
+      <c r="AO16" s="213"/>
+      <c r="AP16" s="212"/>
+      <c r="AQ16" s="213"/>
       <c r="AR16" s="108"/>
       <c r="AS16" s="109"/>
       <c r="AT16" s="109"/>
@@ -47462,9 +47460,9 @@
       <c r="AP17" s="89"/>
       <c r="AQ17" s="89"/>
       <c r="AR17" s="83"/>
-      <c r="AS17" s="232"/>
-      <c r="AT17" s="233"/>
-      <c r="AU17" s="233"/>
+      <c r="AS17" s="231"/>
+      <c r="AT17" s="232"/>
+      <c r="AU17" s="232"/>
       <c r="AV17" s="16"/>
       <c r="AW17" s="16"/>
       <c r="AX17" s="16"/>
@@ -47514,9 +47512,9 @@
       <c r="AP18" s="88"/>
       <c r="AQ18" s="88"/>
       <c r="AR18" s="57"/>
-      <c r="AS18" s="236"/>
-      <c r="AT18" s="237"/>
-      <c r="AU18" s="237"/>
+      <c r="AS18" s="235"/>
+      <c r="AT18" s="236"/>
+      <c r="AU18" s="236"/>
       <c r="AV18" s="16"/>
       <c r="AW18" s="16"/>
       <c r="AX18" s="16"/>
@@ -47566,84 +47564,84 @@
       <c r="AP19" s="87"/>
       <c r="AQ19" s="87"/>
       <c r="AR19" s="61"/>
-      <c r="AS19" s="234"/>
-      <c r="AT19" s="235"/>
-      <c r="AU19" s="235"/>
+      <c r="AS19" s="233"/>
+      <c r="AT19" s="234"/>
+      <c r="AU19" s="234"/>
       <c r="AV19" s="16"/>
       <c r="AW19" s="16"/>
       <c r="AX19" s="16"/>
     </row>
     <row r="20" spans="1:50" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="178"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="178"/>
-      <c r="P20" s="178"/>
-      <c r="Q20" s="178"/>
-      <c r="R20" s="178"/>
-      <c r="S20" s="178"/>
-      <c r="T20" s="178"/>
-      <c r="U20" s="178"/>
-      <c r="V20" s="178"/>
-      <c r="W20" s="178"/>
-      <c r="X20" s="178"/>
-      <c r="Y20" s="178"/>
-      <c r="Z20" s="178"/>
-      <c r="AA20" s="178"/>
-      <c r="AB20" s="178"/>
-      <c r="AC20" s="178"/>
-      <c r="AD20" s="178"/>
-      <c r="AE20" s="178"/>
-      <c r="AF20" s="178"/>
-      <c r="AG20" s="178"/>
-      <c r="AH20" s="178"/>
-      <c r="AI20" s="178"/>
-      <c r="AJ20" s="178"/>
-      <c r="AK20" s="178"/>
-      <c r="AL20" s="178"/>
-      <c r="AM20" s="178"/>
-      <c r="AN20" s="178"/>
-      <c r="AO20" s="178"/>
-      <c r="AP20" s="178"/>
-      <c r="AQ20" s="178"/>
-      <c r="AR20" s="178"/>
-      <c r="AS20" s="178"/>
-      <c r="AT20" s="178"/>
-      <c r="AU20" s="178"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="147"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="147"/>
+      <c r="AE20" s="147"/>
+      <c r="AF20" s="147"/>
+      <c r="AG20" s="147"/>
+      <c r="AH20" s="147"/>
+      <c r="AI20" s="147"/>
+      <c r="AJ20" s="147"/>
+      <c r="AK20" s="147"/>
+      <c r="AL20" s="147"/>
+      <c r="AM20" s="147"/>
+      <c r="AN20" s="147"/>
+      <c r="AO20" s="147"/>
+      <c r="AP20" s="147"/>
+      <c r="AQ20" s="147"/>
+      <c r="AR20" s="147"/>
+      <c r="AS20" s="147"/>
+      <c r="AT20" s="147"/>
+      <c r="AU20" s="147"/>
     </row>
     <row r="21" spans="1:50" ht="15" customHeight="1">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="219"/>
-      <c r="K21" s="219"/>
-      <c r="L21" s="219"/>
-      <c r="M21" s="219"/>
-      <c r="N21" s="219"/>
-      <c r="O21" s="219"/>
-      <c r="P21" s="220"/>
-      <c r="Q21" s="221"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="219"/>
+      <c r="Q21" s="220"/>
       <c r="R21" s="106"/>
       <c r="S21" s="107"/>
-      <c r="T21" s="220"/>
-      <c r="U21" s="221"/>
+      <c r="T21" s="219"/>
+      <c r="U21" s="220"/>
       <c r="V21" s="106"/>
       <c r="W21" s="107"/>
       <c r="X21" s="106"/>
@@ -47677,46 +47675,46 @@
     <row r="22" spans="1:50" ht="15" customHeight="1">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="222"/>
-      <c r="F22" s="222"/>
-      <c r="G22" s="222"/>
-      <c r="H22" s="222"/>
-      <c r="I22" s="222"/>
-      <c r="J22" s="222"/>
-      <c r="K22" s="222"/>
-      <c r="L22" s="222"/>
-      <c r="M22" s="222"/>
-      <c r="N22" s="222"/>
-      <c r="O22" s="222"/>
-      <c r="P22" s="224"/>
-      <c r="Q22" s="225"/>
-      <c r="R22" s="223"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="221"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="221"/>
+      <c r="J22" s="221"/>
+      <c r="K22" s="221"/>
+      <c r="L22" s="221"/>
+      <c r="M22" s="221"/>
+      <c r="N22" s="221"/>
+      <c r="O22" s="221"/>
+      <c r="P22" s="223"/>
+      <c r="Q22" s="224"/>
+      <c r="R22" s="222"/>
       <c r="S22" s="117"/>
-      <c r="T22" s="224"/>
-      <c r="U22" s="225"/>
-      <c r="V22" s="223"/>
+      <c r="T22" s="223"/>
+      <c r="U22" s="224"/>
+      <c r="V22" s="222"/>
       <c r="W22" s="117"/>
-      <c r="X22" s="223"/>
+      <c r="X22" s="222"/>
       <c r="Y22" s="117"/>
-      <c r="Z22" s="223"/>
+      <c r="Z22" s="222"/>
       <c r="AA22" s="117"/>
-      <c r="AB22" s="223"/>
+      <c r="AB22" s="222"/>
       <c r="AC22" s="117"/>
-      <c r="AD22" s="223"/>
+      <c r="AD22" s="222"/>
       <c r="AE22" s="117"/>
-      <c r="AF22" s="223"/>
+      <c r="AF22" s="222"/>
       <c r="AG22" s="117"/>
-      <c r="AH22" s="223"/>
+      <c r="AH22" s="222"/>
       <c r="AI22" s="117"/>
-      <c r="AJ22" s="223"/>
+      <c r="AJ22" s="222"/>
       <c r="AK22" s="117"/>
-      <c r="AL22" s="223"/>
+      <c r="AL22" s="222"/>
       <c r="AM22" s="117"/>
-      <c r="AN22" s="223"/>
+      <c r="AN22" s="222"/>
       <c r="AO22" s="117"/>
-      <c r="AP22" s="223"/>
+      <c r="AP22" s="222"/>
       <c r="AQ22" s="117"/>
       <c r="AR22" s="98"/>
       <c r="AS22" s="99"/>
@@ -47729,47 +47727,47 @@
     <row r="23" spans="1:50" ht="15" customHeight="1">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="238"/>
-      <c r="E23" s="238"/>
-      <c r="F23" s="238"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="238"/>
-      <c r="I23" s="238"/>
-      <c r="J23" s="238"/>
-      <c r="K23" s="238"/>
-      <c r="L23" s="238"/>
-      <c r="M23" s="238"/>
-      <c r="N23" s="238"/>
-      <c r="O23" s="238"/>
-      <c r="P23" s="239"/>
-      <c r="Q23" s="240"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="242"/>
-      <c r="T23" s="239"/>
-      <c r="U23" s="240"/>
-      <c r="V23" s="241"/>
-      <c r="W23" s="242"/>
-      <c r="X23" s="241"/>
-      <c r="Y23" s="242"/>
-      <c r="Z23" s="241"/>
-      <c r="AA23" s="242"/>
-      <c r="AB23" s="241"/>
-      <c r="AC23" s="242"/>
-      <c r="AD23" s="241"/>
-      <c r="AE23" s="242"/>
-      <c r="AF23" s="241"/>
-      <c r="AG23" s="242"/>
-      <c r="AH23" s="241"/>
-      <c r="AI23" s="242"/>
-      <c r="AJ23" s="241"/>
-      <c r="AK23" s="242"/>
-      <c r="AL23" s="241"/>
-      <c r="AM23" s="242"/>
-      <c r="AN23" s="241"/>
-      <c r="AO23" s="242"/>
-      <c r="AP23" s="241"/>
-      <c r="AQ23" s="242"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="237"/>
+      <c r="E23" s="237"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="237"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="237"/>
+      <c r="L23" s="237"/>
+      <c r="M23" s="237"/>
+      <c r="N23" s="237"/>
+      <c r="O23" s="237"/>
+      <c r="P23" s="238"/>
+      <c r="Q23" s="239"/>
+      <c r="R23" s="240"/>
+      <c r="S23" s="241"/>
+      <c r="T23" s="238"/>
+      <c r="U23" s="239"/>
+      <c r="V23" s="240"/>
+      <c r="W23" s="241"/>
+      <c r="X23" s="240"/>
+      <c r="Y23" s="241"/>
+      <c r="Z23" s="240"/>
+      <c r="AA23" s="241"/>
+      <c r="AB23" s="240"/>
+      <c r="AC23" s="241"/>
+      <c r="AD23" s="240"/>
+      <c r="AE23" s="241"/>
+      <c r="AF23" s="240"/>
+      <c r="AG23" s="241"/>
+      <c r="AH23" s="240"/>
+      <c r="AI23" s="241"/>
+      <c r="AJ23" s="240"/>
+      <c r="AK23" s="241"/>
+      <c r="AL23" s="240"/>
+      <c r="AM23" s="241"/>
+      <c r="AN23" s="240"/>
+      <c r="AO23" s="241"/>
+      <c r="AP23" s="240"/>
+      <c r="AQ23" s="241"/>
       <c r="AR23" s="98"/>
       <c r="AS23" s="99"/>
       <c r="AT23" s="99"/>
@@ -47823,9 +47821,9 @@
       <c r="AP24" s="89"/>
       <c r="AQ24" s="89"/>
       <c r="AR24" s="83"/>
-      <c r="AS24" s="232"/>
-      <c r="AT24" s="233"/>
-      <c r="AU24" s="233"/>
+      <c r="AS24" s="231"/>
+      <c r="AT24" s="232"/>
+      <c r="AU24" s="232"/>
       <c r="AV24" s="16"/>
       <c r="AW24" s="16"/>
       <c r="AX24" s="16"/>
@@ -47875,9 +47873,9 @@
       <c r="AP25" s="88"/>
       <c r="AQ25" s="88"/>
       <c r="AR25" s="57"/>
-      <c r="AS25" s="236"/>
-      <c r="AT25" s="237"/>
-      <c r="AU25" s="237"/>
+      <c r="AS25" s="235"/>
+      <c r="AT25" s="236"/>
+      <c r="AU25" s="236"/>
       <c r="AV25" s="16"/>
       <c r="AW25" s="16"/>
       <c r="AX25" s="16"/>
@@ -47927,9 +47925,9 @@
       <c r="AP26" s="87"/>
       <c r="AQ26" s="87"/>
       <c r="AR26" s="61"/>
-      <c r="AS26" s="234"/>
-      <c r="AT26" s="235"/>
-      <c r="AU26" s="235"/>
+      <c r="AS26" s="233"/>
+      <c r="AT26" s="234"/>
+      <c r="AU26" s="234"/>
       <c r="AV26" s="16"/>
       <c r="AW26" s="16"/>
       <c r="AX26" s="16"/>
@@ -48083,8 +48081,8 @@
     </row>
     <row r="30" spans="1:50" ht="15" customHeight="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="243"/>
-      <c r="C30" s="243"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
       <c r="D30" s="72"/>
       <c r="E30" s="72"/>
       <c r="F30" s="72"/>
@@ -48180,9 +48178,9 @@
       <c r="AU31" s="79"/>
     </row>
     <row r="32" spans="1:50" ht="15" customHeight="1">
-      <c r="A32" s="244"/>
-      <c r="B32" s="244"/>
-      <c r="C32" s="244"/>
+      <c r="A32" s="243"/>
+      <c r="B32" s="243"/>
+      <c r="C32" s="243"/>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
       <c r="F32" s="54"/>
@@ -48377,8 +48375,8 @@
     </row>
     <row r="36" spans="1:50" ht="15" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="243"/>
-      <c r="C36" s="243"/>
+      <c r="B36" s="242"/>
+      <c r="C36" s="242"/>
       <c r="D36" s="72"/>
       <c r="E36" s="72"/>
       <c r="F36" s="72"/>
@@ -48474,9 +48472,9 @@
       <c r="AU37" s="79"/>
     </row>
     <row r="38" spans="1:50" ht="15" customHeight="1">
-      <c r="A38" s="244"/>
-      <c r="B38" s="244"/>
-      <c r="C38" s="244"/>
+      <c r="A38" s="243"/>
+      <c r="B38" s="243"/>
+      <c r="C38" s="243"/>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
@@ -48621,9 +48619,9 @@
       <c r="AU40" s="79"/>
     </row>
     <row r="41" spans="1:50" ht="15" customHeight="1">
-      <c r="A41" s="244"/>
-      <c r="B41" s="244"/>
-      <c r="C41" s="244"/>
+      <c r="A41" s="243"/>
+      <c r="B41" s="243"/>
+      <c r="C41" s="243"/>
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
       <c r="F41" s="54"/>
@@ -48670,125 +48668,125 @@
       <c r="AU41" s="81"/>
     </row>
     <row r="42" spans="1:50" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="178"/>
-      <c r="B42" s="178"/>
-      <c r="C42" s="178"/>
-      <c r="D42" s="178"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="178"/>
-      <c r="K42" s="178"/>
-      <c r="L42" s="178"/>
-      <c r="M42" s="178"/>
-      <c r="N42" s="178"/>
-      <c r="O42" s="178"/>
-      <c r="P42" s="178"/>
-      <c r="Q42" s="178"/>
-      <c r="R42" s="178"/>
-      <c r="S42" s="178"/>
-      <c r="T42" s="178"/>
-      <c r="U42" s="178"/>
-      <c r="V42" s="178"/>
-      <c r="W42" s="178"/>
-      <c r="X42" s="178"/>
-      <c r="Y42" s="178"/>
-      <c r="Z42" s="178"/>
-      <c r="AA42" s="178"/>
-      <c r="AB42" s="178"/>
-      <c r="AC42" s="178"/>
-      <c r="AD42" s="178"/>
-      <c r="AE42" s="178"/>
-      <c r="AF42" s="178"/>
-      <c r="AG42" s="178"/>
-      <c r="AH42" s="178"/>
-      <c r="AI42" s="178"/>
-      <c r="AJ42" s="178"/>
-      <c r="AK42" s="178"/>
-      <c r="AL42" s="178"/>
-      <c r="AM42" s="178"/>
-      <c r="AN42" s="178"/>
-      <c r="AO42" s="178"/>
-      <c r="AP42" s="178"/>
-      <c r="AQ42" s="178"/>
-      <c r="AR42" s="178"/>
-      <c r="AS42" s="178"/>
-      <c r="AT42" s="178"/>
-      <c r="AU42" s="178"/>
+      <c r="A42" s="147"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="147"/>
+      <c r="R42" s="147"/>
+      <c r="S42" s="147"/>
+      <c r="T42" s="147"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="147"/>
+      <c r="W42" s="147"/>
+      <c r="X42" s="147"/>
+      <c r="Y42" s="147"/>
+      <c r="Z42" s="147"/>
+      <c r="AA42" s="147"/>
+      <c r="AB42" s="147"/>
+      <c r="AC42" s="147"/>
+      <c r="AD42" s="147"/>
+      <c r="AE42" s="147"/>
+      <c r="AF42" s="147"/>
+      <c r="AG42" s="147"/>
+      <c r="AH42" s="147"/>
+      <c r="AI42" s="147"/>
+      <c r="AJ42" s="147"/>
+      <c r="AK42" s="147"/>
+      <c r="AL42" s="147"/>
+      <c r="AM42" s="147"/>
+      <c r="AN42" s="147"/>
+      <c r="AO42" s="147"/>
+      <c r="AP42" s="147"/>
+      <c r="AQ42" s="147"/>
+      <c r="AR42" s="147"/>
+      <c r="AS42" s="147"/>
+      <c r="AT42" s="147"/>
+      <c r="AU42" s="147"/>
     </row>
     <row r="43" spans="1:50" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="175"/>
-      <c r="B43" s="175"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="175"/>
-      <c r="E43" s="175"/>
-      <c r="F43" s="175"/>
-      <c r="G43" s="175"/>
-      <c r="H43" s="175"/>
-      <c r="I43" s="175"/>
-      <c r="J43" s="175"/>
-      <c r="K43" s="175"/>
-      <c r="L43" s="175"/>
-      <c r="M43" s="175"/>
-      <c r="N43" s="175"/>
-      <c r="O43" s="175"/>
-      <c r="P43" s="175"/>
-      <c r="Q43" s="175"/>
-      <c r="R43" s="175"/>
-      <c r="S43" s="175"/>
-      <c r="T43" s="175"/>
-      <c r="U43" s="175"/>
-      <c r="V43" s="175"/>
-      <c r="W43" s="175"/>
-      <c r="X43" s="175"/>
-      <c r="Y43" s="175"/>
-      <c r="Z43" s="175"/>
-      <c r="AA43" s="175"/>
-      <c r="AB43" s="175"/>
-      <c r="AC43" s="175"/>
-      <c r="AD43" s="175"/>
-      <c r="AE43" s="175"/>
-      <c r="AF43" s="175"/>
-      <c r="AG43" s="175"/>
-      <c r="AH43" s="175"/>
-      <c r="AI43" s="175"/>
-      <c r="AJ43" s="175"/>
-      <c r="AK43" s="175"/>
-      <c r="AL43" s="175"/>
-      <c r="AM43" s="175"/>
-      <c r="AN43" s="175"/>
-      <c r="AO43" s="175"/>
-      <c r="AP43" s="175"/>
-      <c r="AQ43" s="175"/>
-      <c r="AR43" s="175"/>
-      <c r="AS43" s="175"/>
-      <c r="AT43" s="175"/>
-      <c r="AU43" s="175"/>
+      <c r="A43" s="260"/>
+      <c r="B43" s="260"/>
+      <c r="C43" s="260"/>
+      <c r="D43" s="260"/>
+      <c r="E43" s="260"/>
+      <c r="F43" s="260"/>
+      <c r="G43" s="260"/>
+      <c r="H43" s="260"/>
+      <c r="I43" s="260"/>
+      <c r="J43" s="260"/>
+      <c r="K43" s="260"/>
+      <c r="L43" s="260"/>
+      <c r="M43" s="260"/>
+      <c r="N43" s="260"/>
+      <c r="O43" s="260"/>
+      <c r="P43" s="260"/>
+      <c r="Q43" s="260"/>
+      <c r="R43" s="260"/>
+      <c r="S43" s="260"/>
+      <c r="T43" s="260"/>
+      <c r="U43" s="260"/>
+      <c r="V43" s="260"/>
+      <c r="W43" s="260"/>
+      <c r="X43" s="260"/>
+      <c r="Y43" s="260"/>
+      <c r="Z43" s="260"/>
+      <c r="AA43" s="260"/>
+      <c r="AB43" s="260"/>
+      <c r="AC43" s="260"/>
+      <c r="AD43" s="260"/>
+      <c r="AE43" s="260"/>
+      <c r="AF43" s="260"/>
+      <c r="AG43" s="260"/>
+      <c r="AH43" s="260"/>
+      <c r="AI43" s="260"/>
+      <c r="AJ43" s="260"/>
+      <c r="AK43" s="260"/>
+      <c r="AL43" s="260"/>
+      <c r="AM43" s="260"/>
+      <c r="AN43" s="260"/>
+      <c r="AO43" s="260"/>
+      <c r="AP43" s="260"/>
+      <c r="AQ43" s="260"/>
+      <c r="AR43" s="260"/>
+      <c r="AS43" s="260"/>
+      <c r="AT43" s="260"/>
+      <c r="AU43" s="260"/>
     </row>
     <row r="44" spans="1:50" ht="15" customHeight="1">
       <c r="A44" s="44"/>
       <c r="B44" s="44"/>
-      <c r="C44" s="201"/>
-      <c r="D44" s="219"/>
-      <c r="E44" s="219"/>
-      <c r="F44" s="219"/>
-      <c r="G44" s="219"/>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
-      <c r="K44" s="219"/>
-      <c r="L44" s="219"/>
-      <c r="M44" s="219"/>
-      <c r="N44" s="219"/>
-      <c r="O44" s="219"/>
-      <c r="P44" s="220"/>
-      <c r="Q44" s="221"/>
+      <c r="C44" s="203"/>
+      <c r="D44" s="218"/>
+      <c r="E44" s="218"/>
+      <c r="F44" s="218"/>
+      <c r="G44" s="218"/>
+      <c r="H44" s="218"/>
+      <c r="I44" s="218"/>
+      <c r="J44" s="218"/>
+      <c r="K44" s="218"/>
+      <c r="L44" s="218"/>
+      <c r="M44" s="218"/>
+      <c r="N44" s="218"/>
+      <c r="O44" s="218"/>
+      <c r="P44" s="219"/>
+      <c r="Q44" s="220"/>
       <c r="R44" s="106"/>
       <c r="S44" s="107"/>
-      <c r="T44" s="220"/>
-      <c r="U44" s="221"/>
+      <c r="T44" s="219"/>
+      <c r="U44" s="220"/>
       <c r="V44" s="106"/>
       <c r="W44" s="107"/>
       <c r="X44" s="106"/>
@@ -48822,46 +48820,46 @@
     <row r="45" spans="1:50" ht="15" customHeight="1">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="222"/>
-      <c r="F45" s="222"/>
-      <c r="G45" s="222"/>
-      <c r="H45" s="222"/>
-      <c r="I45" s="222"/>
-      <c r="J45" s="222"/>
-      <c r="K45" s="222"/>
-      <c r="L45" s="222"/>
-      <c r="M45" s="222"/>
-      <c r="N45" s="222"/>
-      <c r="O45" s="222"/>
-      <c r="P45" s="224"/>
-      <c r="Q45" s="225"/>
-      <c r="R45" s="223"/>
+      <c r="C45" s="204"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="221"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="221"/>
+      <c r="I45" s="221"/>
+      <c r="J45" s="221"/>
+      <c r="K45" s="221"/>
+      <c r="L45" s="221"/>
+      <c r="M45" s="221"/>
+      <c r="N45" s="221"/>
+      <c r="O45" s="221"/>
+      <c r="P45" s="223"/>
+      <c r="Q45" s="224"/>
+      <c r="R45" s="222"/>
       <c r="S45" s="117"/>
-      <c r="T45" s="224"/>
-      <c r="U45" s="225"/>
-      <c r="V45" s="223"/>
+      <c r="T45" s="223"/>
+      <c r="U45" s="224"/>
+      <c r="V45" s="222"/>
       <c r="W45" s="117"/>
-      <c r="X45" s="223"/>
+      <c r="X45" s="222"/>
       <c r="Y45" s="117"/>
-      <c r="Z45" s="223"/>
+      <c r="Z45" s="222"/>
       <c r="AA45" s="117"/>
-      <c r="AB45" s="223"/>
+      <c r="AB45" s="222"/>
       <c r="AC45" s="117"/>
-      <c r="AD45" s="223"/>
+      <c r="AD45" s="222"/>
       <c r="AE45" s="117"/>
-      <c r="AF45" s="223"/>
+      <c r="AF45" s="222"/>
       <c r="AG45" s="117"/>
-      <c r="AH45" s="223"/>
+      <c r="AH45" s="222"/>
       <c r="AI45" s="117"/>
-      <c r="AJ45" s="223"/>
+      <c r="AJ45" s="222"/>
       <c r="AK45" s="117"/>
-      <c r="AL45" s="223"/>
+      <c r="AL45" s="222"/>
       <c r="AM45" s="117"/>
-      <c r="AN45" s="223"/>
+      <c r="AN45" s="222"/>
       <c r="AO45" s="117"/>
-      <c r="AP45" s="223"/>
+      <c r="AP45" s="222"/>
       <c r="AQ45" s="117"/>
       <c r="AR45" s="98"/>
       <c r="AS45" s="99"/>
@@ -48874,46 +48872,46 @@
     <row r="46" spans="1:50" ht="15" customHeight="1">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
-      <c r="C46" s="203"/>
-      <c r="D46" s="197"/>
-      <c r="E46" s="197"/>
-      <c r="F46" s="197"/>
-      <c r="G46" s="197"/>
-      <c r="H46" s="197"/>
-      <c r="I46" s="197"/>
-      <c r="J46" s="197"/>
-      <c r="K46" s="197"/>
-      <c r="L46" s="197"/>
-      <c r="M46" s="197"/>
-      <c r="N46" s="197"/>
-      <c r="O46" s="197"/>
-      <c r="P46" s="198"/>
-      <c r="Q46" s="199"/>
-      <c r="R46" s="200"/>
+      <c r="C46" s="205"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="199"/>
+      <c r="K46" s="199"/>
+      <c r="L46" s="199"/>
+      <c r="M46" s="199"/>
+      <c r="N46" s="199"/>
+      <c r="O46" s="199"/>
+      <c r="P46" s="200"/>
+      <c r="Q46" s="201"/>
+      <c r="R46" s="202"/>
       <c r="S46" s="115"/>
-      <c r="T46" s="198"/>
-      <c r="U46" s="199"/>
-      <c r="V46" s="200"/>
+      <c r="T46" s="200"/>
+      <c r="U46" s="201"/>
+      <c r="V46" s="202"/>
       <c r="W46" s="115"/>
-      <c r="X46" s="200"/>
+      <c r="X46" s="202"/>
       <c r="Y46" s="115"/>
-      <c r="Z46" s="200"/>
+      <c r="Z46" s="202"/>
       <c r="AA46" s="115"/>
-      <c r="AB46" s="200"/>
+      <c r="AB46" s="202"/>
       <c r="AC46" s="115"/>
-      <c r="AD46" s="200"/>
+      <c r="AD46" s="202"/>
       <c r="AE46" s="115"/>
-      <c r="AF46" s="200"/>
+      <c r="AF46" s="202"/>
       <c r="AG46" s="115"/>
-      <c r="AH46" s="200"/>
+      <c r="AH46" s="202"/>
       <c r="AI46" s="115"/>
-      <c r="AJ46" s="200"/>
+      <c r="AJ46" s="202"/>
       <c r="AK46" s="115"/>
-      <c r="AL46" s="200"/>
+      <c r="AL46" s="202"/>
       <c r="AM46" s="115"/>
-      <c r="AN46" s="200"/>
+      <c r="AN46" s="202"/>
       <c r="AO46" s="115"/>
-      <c r="AP46" s="200"/>
+      <c r="AP46" s="202"/>
       <c r="AQ46" s="115"/>
       <c r="AR46" s="144"/>
       <c r="AS46" s="145"/>
@@ -48926,25 +48924,25 @@
     <row r="47" spans="1:50" ht="15" customHeight="1">
       <c r="A47" s="47"/>
       <c r="B47" s="47"/>
-      <c r="C47" s="204"/>
-      <c r="D47" s="226"/>
-      <c r="E47" s="226"/>
-      <c r="F47" s="226"/>
-      <c r="G47" s="226"/>
-      <c r="H47" s="226"/>
-      <c r="I47" s="226"/>
-      <c r="J47" s="226"/>
-      <c r="K47" s="226"/>
-      <c r="L47" s="226"/>
-      <c r="M47" s="226"/>
-      <c r="N47" s="226"/>
-      <c r="O47" s="226"/>
-      <c r="P47" s="227"/>
-      <c r="Q47" s="228"/>
+      <c r="C47" s="206"/>
+      <c r="D47" s="225"/>
+      <c r="E47" s="225"/>
+      <c r="F47" s="225"/>
+      <c r="G47" s="225"/>
+      <c r="H47" s="225"/>
+      <c r="I47" s="225"/>
+      <c r="J47" s="225"/>
+      <c r="K47" s="225"/>
+      <c r="L47" s="225"/>
+      <c r="M47" s="225"/>
+      <c r="N47" s="225"/>
+      <c r="O47" s="225"/>
+      <c r="P47" s="226"/>
+      <c r="Q47" s="227"/>
       <c r="R47" s="129"/>
       <c r="S47" s="130"/>
-      <c r="T47" s="227"/>
-      <c r="U47" s="228"/>
+      <c r="T47" s="226"/>
+      <c r="U47" s="227"/>
       <c r="V47" s="129"/>
       <c r="W47" s="130"/>
       <c r="X47" s="129"/>
@@ -48978,47 +48976,47 @@
     <row r="48" spans="1:50" ht="15" customHeight="1">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
-      <c r="C48" s="205"/>
-      <c r="D48" s="229"/>
-      <c r="E48" s="229"/>
-      <c r="F48" s="229"/>
-      <c r="G48" s="229"/>
-      <c r="H48" s="229"/>
-      <c r="I48" s="229"/>
-      <c r="J48" s="229"/>
-      <c r="K48" s="229"/>
-      <c r="L48" s="229"/>
-      <c r="M48" s="229"/>
-      <c r="N48" s="229"/>
-      <c r="O48" s="229"/>
-      <c r="P48" s="230"/>
-      <c r="Q48" s="231"/>
+      <c r="C48" s="207"/>
+      <c r="D48" s="228"/>
+      <c r="E48" s="228"/>
+      <c r="F48" s="228"/>
+      <c r="G48" s="228"/>
+      <c r="H48" s="228"/>
+      <c r="I48" s="228"/>
+      <c r="J48" s="228"/>
+      <c r="K48" s="228"/>
+      <c r="L48" s="228"/>
+      <c r="M48" s="228"/>
+      <c r="N48" s="228"/>
+      <c r="O48" s="228"/>
+      <c r="P48" s="229"/>
+      <c r="Q48" s="230"/>
       <c r="R48" s="116"/>
-      <c r="S48" s="212"/>
-      <c r="T48" s="230"/>
-      <c r="U48" s="231"/>
+      <c r="S48" s="214"/>
+      <c r="T48" s="229"/>
+      <c r="U48" s="230"/>
       <c r="V48" s="116"/>
-      <c r="W48" s="212"/>
+      <c r="W48" s="214"/>
       <c r="X48" s="116"/>
-      <c r="Y48" s="212"/>
+      <c r="Y48" s="214"/>
       <c r="Z48" s="116"/>
-      <c r="AA48" s="212"/>
+      <c r="AA48" s="214"/>
       <c r="AB48" s="116"/>
-      <c r="AC48" s="212"/>
+      <c r="AC48" s="214"/>
       <c r="AD48" s="116"/>
-      <c r="AE48" s="212"/>
+      <c r="AE48" s="214"/>
       <c r="AF48" s="116"/>
-      <c r="AG48" s="212"/>
+      <c r="AG48" s="214"/>
       <c r="AH48" s="116"/>
-      <c r="AI48" s="212"/>
+      <c r="AI48" s="214"/>
       <c r="AJ48" s="116"/>
-      <c r="AK48" s="212"/>
+      <c r="AK48" s="214"/>
       <c r="AL48" s="116"/>
-      <c r="AM48" s="212"/>
+      <c r="AM48" s="214"/>
       <c r="AN48" s="116"/>
-      <c r="AO48" s="212"/>
+      <c r="AO48" s="214"/>
       <c r="AP48" s="116"/>
-      <c r="AQ48" s="212"/>
+      <c r="AQ48" s="214"/>
       <c r="AR48" s="108"/>
       <c r="AS48" s="109"/>
       <c r="AT48" s="109"/>
@@ -49030,47 +49028,47 @@
     <row r="49" spans="1:50" ht="9.75" customHeight="1">
       <c r="A49" s="49"/>
       <c r="B49" s="49"/>
-      <c r="C49" s="206"/>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="207"/>
-      <c r="K49" s="207"/>
-      <c r="L49" s="207"/>
-      <c r="M49" s="207"/>
-      <c r="N49" s="207"/>
-      <c r="O49" s="207"/>
-      <c r="P49" s="208"/>
-      <c r="Q49" s="209"/>
-      <c r="R49" s="210"/>
-      <c r="S49" s="211"/>
-      <c r="T49" s="208"/>
-      <c r="U49" s="209"/>
-      <c r="V49" s="210"/>
-      <c r="W49" s="211"/>
-      <c r="X49" s="210"/>
-      <c r="Y49" s="211"/>
-      <c r="Z49" s="210"/>
-      <c r="AA49" s="211"/>
-      <c r="AB49" s="210"/>
-      <c r="AC49" s="211"/>
-      <c r="AD49" s="210"/>
-      <c r="AE49" s="211"/>
-      <c r="AF49" s="210"/>
-      <c r="AG49" s="211"/>
-      <c r="AH49" s="210"/>
-      <c r="AI49" s="211"/>
-      <c r="AJ49" s="210"/>
-      <c r="AK49" s="211"/>
-      <c r="AL49" s="210"/>
-      <c r="AM49" s="211"/>
-      <c r="AN49" s="210"/>
-      <c r="AO49" s="211"/>
-      <c r="AP49" s="210"/>
-      <c r="AQ49" s="211"/>
+      <c r="C49" s="208"/>
+      <c r="D49" s="209"/>
+      <c r="E49" s="209"/>
+      <c r="F49" s="209"/>
+      <c r="G49" s="209"/>
+      <c r="H49" s="209"/>
+      <c r="I49" s="209"/>
+      <c r="J49" s="209"/>
+      <c r="K49" s="209"/>
+      <c r="L49" s="209"/>
+      <c r="M49" s="209"/>
+      <c r="N49" s="209"/>
+      <c r="O49" s="209"/>
+      <c r="P49" s="210"/>
+      <c r="Q49" s="211"/>
+      <c r="R49" s="212"/>
+      <c r="S49" s="213"/>
+      <c r="T49" s="210"/>
+      <c r="U49" s="211"/>
+      <c r="V49" s="212"/>
+      <c r="W49" s="213"/>
+      <c r="X49" s="212"/>
+      <c r="Y49" s="213"/>
+      <c r="Z49" s="212"/>
+      <c r="AA49" s="213"/>
+      <c r="AB49" s="212"/>
+      <c r="AC49" s="213"/>
+      <c r="AD49" s="212"/>
+      <c r="AE49" s="213"/>
+      <c r="AF49" s="212"/>
+      <c r="AG49" s="213"/>
+      <c r="AH49" s="212"/>
+      <c r="AI49" s="213"/>
+      <c r="AJ49" s="212"/>
+      <c r="AK49" s="213"/>
+      <c r="AL49" s="212"/>
+      <c r="AM49" s="213"/>
+      <c r="AN49" s="212"/>
+      <c r="AO49" s="213"/>
+      <c r="AP49" s="212"/>
+      <c r="AQ49" s="213"/>
       <c r="AR49" s="108"/>
       <c r="AS49" s="109"/>
       <c r="AT49" s="109"/>
@@ -49124,9 +49122,9 @@
       <c r="AP50" s="89"/>
       <c r="AQ50" s="89"/>
       <c r="AR50" s="83"/>
-      <c r="AS50" s="232"/>
-      <c r="AT50" s="233"/>
-      <c r="AU50" s="233"/>
+      <c r="AS50" s="231"/>
+      <c r="AT50" s="232"/>
+      <c r="AU50" s="232"/>
       <c r="AV50" s="16"/>
       <c r="AW50" s="16"/>
       <c r="AX50" s="16"/>
@@ -49176,9 +49174,9 @@
       <c r="AP51" s="88"/>
       <c r="AQ51" s="88"/>
       <c r="AR51" s="57"/>
-      <c r="AS51" s="236"/>
-      <c r="AT51" s="237"/>
-      <c r="AU51" s="237"/>
+      <c r="AS51" s="235"/>
+      <c r="AT51" s="236"/>
+      <c r="AU51" s="236"/>
       <c r="AV51" s="16"/>
       <c r="AW51" s="16"/>
       <c r="AX51" s="16"/>
@@ -49228,84 +49226,84 @@
       <c r="AP52" s="87"/>
       <c r="AQ52" s="87"/>
       <c r="AR52" s="61"/>
-      <c r="AS52" s="234"/>
-      <c r="AT52" s="235"/>
-      <c r="AU52" s="235"/>
+      <c r="AS52" s="233"/>
+      <c r="AT52" s="234"/>
+      <c r="AU52" s="234"/>
       <c r="AV52" s="16"/>
       <c r="AW52" s="16"/>
       <c r="AX52" s="16"/>
     </row>
     <row r="53" spans="1:50" s="2" customFormat="1" ht="11.85" customHeight="1">
-      <c r="A53" s="178"/>
-      <c r="B53" s="178"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="178"/>
-      <c r="K53" s="178"/>
-      <c r="L53" s="178"/>
-      <c r="M53" s="178"/>
-      <c r="N53" s="178"/>
-      <c r="O53" s="178"/>
-      <c r="P53" s="178"/>
-      <c r="Q53" s="178"/>
-      <c r="R53" s="178"/>
-      <c r="S53" s="178"/>
-      <c r="T53" s="178"/>
-      <c r="U53" s="178"/>
-      <c r="V53" s="178"/>
-      <c r="W53" s="178"/>
-      <c r="X53" s="178"/>
-      <c r="Y53" s="178"/>
-      <c r="Z53" s="178"/>
-      <c r="AA53" s="178"/>
-      <c r="AB53" s="178"/>
-      <c r="AC53" s="178"/>
-      <c r="AD53" s="178"/>
-      <c r="AE53" s="178"/>
-      <c r="AF53" s="178"/>
-      <c r="AG53" s="178"/>
-      <c r="AH53" s="178"/>
-      <c r="AI53" s="178"/>
-      <c r="AJ53" s="178"/>
-      <c r="AK53" s="178"/>
-      <c r="AL53" s="178"/>
-      <c r="AM53" s="178"/>
-      <c r="AN53" s="178"/>
-      <c r="AO53" s="178"/>
-      <c r="AP53" s="178"/>
-      <c r="AQ53" s="178"/>
-      <c r="AR53" s="178"/>
-      <c r="AS53" s="178"/>
-      <c r="AT53" s="178"/>
-      <c r="AU53" s="178"/>
+      <c r="A53" s="147"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="147"/>
+      <c r="F53" s="147"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="147"/>
+      <c r="I53" s="147"/>
+      <c r="J53" s="147"/>
+      <c r="K53" s="147"/>
+      <c r="L53" s="147"/>
+      <c r="M53" s="147"/>
+      <c r="N53" s="147"/>
+      <c r="O53" s="147"/>
+      <c r="P53" s="147"/>
+      <c r="Q53" s="147"/>
+      <c r="R53" s="147"/>
+      <c r="S53" s="147"/>
+      <c r="T53" s="147"/>
+      <c r="U53" s="147"/>
+      <c r="V53" s="147"/>
+      <c r="W53" s="147"/>
+      <c r="X53" s="147"/>
+      <c r="Y53" s="147"/>
+      <c r="Z53" s="147"/>
+      <c r="AA53" s="147"/>
+      <c r="AB53" s="147"/>
+      <c r="AC53" s="147"/>
+      <c r="AD53" s="147"/>
+      <c r="AE53" s="147"/>
+      <c r="AF53" s="147"/>
+      <c r="AG53" s="147"/>
+      <c r="AH53" s="147"/>
+      <c r="AI53" s="147"/>
+      <c r="AJ53" s="147"/>
+      <c r="AK53" s="147"/>
+      <c r="AL53" s="147"/>
+      <c r="AM53" s="147"/>
+      <c r="AN53" s="147"/>
+      <c r="AO53" s="147"/>
+      <c r="AP53" s="147"/>
+      <c r="AQ53" s="147"/>
+      <c r="AR53" s="147"/>
+      <c r="AS53" s="147"/>
+      <c r="AT53" s="147"/>
+      <c r="AU53" s="147"/>
     </row>
     <row r="54" spans="1:50" ht="9.75" customHeight="1">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
-      <c r="C54" s="201"/>
-      <c r="D54" s="219"/>
-      <c r="E54" s="219"/>
-      <c r="F54" s="219"/>
-      <c r="G54" s="219"/>
-      <c r="H54" s="219"/>
-      <c r="I54" s="219"/>
-      <c r="J54" s="219"/>
-      <c r="K54" s="219"/>
-      <c r="L54" s="219"/>
-      <c r="M54" s="219"/>
-      <c r="N54" s="219"/>
-      <c r="O54" s="219"/>
-      <c r="P54" s="220"/>
-      <c r="Q54" s="221"/>
+      <c r="C54" s="203"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="218"/>
+      <c r="G54" s="218"/>
+      <c r="H54" s="218"/>
+      <c r="I54" s="218"/>
+      <c r="J54" s="218"/>
+      <c r="K54" s="218"/>
+      <c r="L54" s="218"/>
+      <c r="M54" s="218"/>
+      <c r="N54" s="218"/>
+      <c r="O54" s="218"/>
+      <c r="P54" s="219"/>
+      <c r="Q54" s="220"/>
       <c r="R54" s="106"/>
       <c r="S54" s="107"/>
-      <c r="T54" s="220"/>
-      <c r="U54" s="221"/>
+      <c r="T54" s="219"/>
+      <c r="U54" s="220"/>
       <c r="V54" s="106"/>
       <c r="W54" s="107"/>
       <c r="X54" s="106"/>
@@ -49339,46 +49337,46 @@
     <row r="55" spans="1:50" ht="9.75" customHeight="1">
       <c r="A55" s="45"/>
       <c r="B55" s="45"/>
-      <c r="C55" s="202"/>
-      <c r="D55" s="222"/>
-      <c r="E55" s="222"/>
-      <c r="F55" s="222"/>
-      <c r="G55" s="222"/>
-      <c r="H55" s="222"/>
-      <c r="I55" s="222"/>
-      <c r="J55" s="222"/>
-      <c r="K55" s="222"/>
-      <c r="L55" s="222"/>
-      <c r="M55" s="222"/>
-      <c r="N55" s="222"/>
-      <c r="O55" s="222"/>
-      <c r="P55" s="224"/>
-      <c r="Q55" s="225"/>
-      <c r="R55" s="223"/>
+      <c r="C55" s="204"/>
+      <c r="D55" s="221"/>
+      <c r="E55" s="221"/>
+      <c r="F55" s="221"/>
+      <c r="G55" s="221"/>
+      <c r="H55" s="221"/>
+      <c r="I55" s="221"/>
+      <c r="J55" s="221"/>
+      <c r="K55" s="221"/>
+      <c r="L55" s="221"/>
+      <c r="M55" s="221"/>
+      <c r="N55" s="221"/>
+      <c r="O55" s="221"/>
+      <c r="P55" s="223"/>
+      <c r="Q55" s="224"/>
+      <c r="R55" s="222"/>
       <c r="S55" s="117"/>
-      <c r="T55" s="224"/>
-      <c r="U55" s="225"/>
-      <c r="V55" s="223"/>
+      <c r="T55" s="223"/>
+      <c r="U55" s="224"/>
+      <c r="V55" s="222"/>
       <c r="W55" s="117"/>
-      <c r="X55" s="223"/>
+      <c r="X55" s="222"/>
       <c r="Y55" s="117"/>
-      <c r="Z55" s="223"/>
+      <c r="Z55" s="222"/>
       <c r="AA55" s="117"/>
-      <c r="AB55" s="223"/>
+      <c r="AB55" s="222"/>
       <c r="AC55" s="117"/>
-      <c r="AD55" s="223"/>
+      <c r="AD55" s="222"/>
       <c r="AE55" s="117"/>
-      <c r="AF55" s="223"/>
+      <c r="AF55" s="222"/>
       <c r="AG55" s="117"/>
-      <c r="AH55" s="223"/>
+      <c r="AH55" s="222"/>
       <c r="AI55" s="117"/>
-      <c r="AJ55" s="223"/>
+      <c r="AJ55" s="222"/>
       <c r="AK55" s="117"/>
-      <c r="AL55" s="223"/>
+      <c r="AL55" s="222"/>
       <c r="AM55" s="117"/>
-      <c r="AN55" s="223"/>
+      <c r="AN55" s="222"/>
       <c r="AO55" s="117"/>
-      <c r="AP55" s="223"/>
+      <c r="AP55" s="222"/>
       <c r="AQ55" s="117"/>
       <c r="AR55" s="98"/>
       <c r="AS55" s="99"/>
@@ -49391,47 +49389,47 @@
     <row r="56" spans="1:50" ht="9.75" customHeight="1">
       <c r="A56" s="46"/>
       <c r="B56" s="46"/>
-      <c r="C56" s="203"/>
-      <c r="D56" s="238"/>
-      <c r="E56" s="238"/>
-      <c r="F56" s="238"/>
-      <c r="G56" s="238"/>
-      <c r="H56" s="238"/>
-      <c r="I56" s="238"/>
-      <c r="J56" s="238"/>
-      <c r="K56" s="238"/>
-      <c r="L56" s="238"/>
-      <c r="M56" s="238"/>
-      <c r="N56" s="238"/>
-      <c r="O56" s="238"/>
-      <c r="P56" s="239"/>
-      <c r="Q56" s="240"/>
-      <c r="R56" s="241"/>
-      <c r="S56" s="242"/>
-      <c r="T56" s="239"/>
-      <c r="U56" s="240"/>
-      <c r="V56" s="241"/>
-      <c r="W56" s="242"/>
-      <c r="X56" s="241"/>
-      <c r="Y56" s="242"/>
-      <c r="Z56" s="241"/>
-      <c r="AA56" s="242"/>
-      <c r="AB56" s="241"/>
-      <c r="AC56" s="242"/>
-      <c r="AD56" s="241"/>
-      <c r="AE56" s="242"/>
-      <c r="AF56" s="241"/>
-      <c r="AG56" s="242"/>
-      <c r="AH56" s="241"/>
-      <c r="AI56" s="242"/>
-      <c r="AJ56" s="241"/>
-      <c r="AK56" s="242"/>
-      <c r="AL56" s="241"/>
-      <c r="AM56" s="242"/>
-      <c r="AN56" s="241"/>
-      <c r="AO56" s="242"/>
-      <c r="AP56" s="241"/>
-      <c r="AQ56" s="242"/>
+      <c r="C56" s="205"/>
+      <c r="D56" s="237"/>
+      <c r="E56" s="237"/>
+      <c r="F56" s="237"/>
+      <c r="G56" s="237"/>
+      <c r="H56" s="237"/>
+      <c r="I56" s="237"/>
+      <c r="J56" s="237"/>
+      <c r="K56" s="237"/>
+      <c r="L56" s="237"/>
+      <c r="M56" s="237"/>
+      <c r="N56" s="237"/>
+      <c r="O56" s="237"/>
+      <c r="P56" s="238"/>
+      <c r="Q56" s="239"/>
+      <c r="R56" s="240"/>
+      <c r="S56" s="241"/>
+      <c r="T56" s="238"/>
+      <c r="U56" s="239"/>
+      <c r="V56" s="240"/>
+      <c r="W56" s="241"/>
+      <c r="X56" s="240"/>
+      <c r="Y56" s="241"/>
+      <c r="Z56" s="240"/>
+      <c r="AA56" s="241"/>
+      <c r="AB56" s="240"/>
+      <c r="AC56" s="241"/>
+      <c r="AD56" s="240"/>
+      <c r="AE56" s="241"/>
+      <c r="AF56" s="240"/>
+      <c r="AG56" s="241"/>
+      <c r="AH56" s="240"/>
+      <c r="AI56" s="241"/>
+      <c r="AJ56" s="240"/>
+      <c r="AK56" s="241"/>
+      <c r="AL56" s="240"/>
+      <c r="AM56" s="241"/>
+      <c r="AN56" s="240"/>
+      <c r="AO56" s="241"/>
+      <c r="AP56" s="240"/>
+      <c r="AQ56" s="241"/>
       <c r="AR56" s="98"/>
       <c r="AS56" s="99"/>
       <c r="AT56" s="99"/>
@@ -49485,9 +49483,9 @@
       <c r="AP57" s="89"/>
       <c r="AQ57" s="89"/>
       <c r="AR57" s="83"/>
-      <c r="AS57" s="232"/>
-      <c r="AT57" s="233"/>
-      <c r="AU57" s="233"/>
+      <c r="AS57" s="231"/>
+      <c r="AT57" s="232"/>
+      <c r="AU57" s="232"/>
       <c r="AV57" s="16"/>
       <c r="AW57" s="16"/>
       <c r="AX57" s="16"/>
@@ -49537,9 +49535,9 @@
       <c r="AP58" s="88"/>
       <c r="AQ58" s="88"/>
       <c r="AR58" s="57"/>
-      <c r="AS58" s="236"/>
-      <c r="AT58" s="237"/>
-      <c r="AU58" s="237"/>
+      <c r="AS58" s="235"/>
+      <c r="AT58" s="236"/>
+      <c r="AU58" s="236"/>
       <c r="AV58" s="16"/>
       <c r="AW58" s="16"/>
       <c r="AX58" s="16"/>
@@ -49589,9 +49587,9 @@
       <c r="AP59" s="87"/>
       <c r="AQ59" s="87"/>
       <c r="AR59" s="61"/>
-      <c r="AS59" s="234"/>
-      <c r="AT59" s="235"/>
-      <c r="AU59" s="235"/>
+      <c r="AS59" s="233"/>
+      <c r="AT59" s="234"/>
+      <c r="AU59" s="234"/>
       <c r="AV59" s="16"/>
       <c r="AW59" s="16"/>
       <c r="AX59" s="16"/>
@@ -49745,8 +49743,8 @@
     </row>
     <row r="63" spans="1:50" ht="9.75" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="243"/>
-      <c r="C63" s="243"/>
+      <c r="B63" s="242"/>
+      <c r="C63" s="242"/>
       <c r="D63" s="72"/>
       <c r="E63" s="72"/>
       <c r="F63" s="72"/>
@@ -49842,9 +49840,9 @@
       <c r="AU64" s="79"/>
     </row>
     <row r="65" spans="1:50" ht="9.75" customHeight="1">
-      <c r="A65" s="244"/>
-      <c r="B65" s="244"/>
-      <c r="C65" s="244"/>
+      <c r="A65" s="243"/>
+      <c r="B65" s="243"/>
+      <c r="C65" s="243"/>
       <c r="D65" s="54"/>
       <c r="E65" s="54"/>
       <c r="F65" s="54"/>
@@ -50283,102 +50281,102 @@
       <c r="AU73" s="79"/>
     </row>
     <row r="74" spans="1:50" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A74" s="245"/>
-      <c r="B74" s="245"/>
-      <c r="C74" s="246"/>
-      <c r="D74" s="258"/>
-      <c r="E74" s="258"/>
-      <c r="F74" s="258"/>
-      <c r="G74" s="258"/>
-      <c r="H74" s="258"/>
-      <c r="I74" s="258"/>
-      <c r="J74" s="258"/>
-      <c r="K74" s="258"/>
-      <c r="L74" s="258"/>
-      <c r="M74" s="258"/>
-      <c r="N74" s="258"/>
-      <c r="O74" s="258"/>
-      <c r="P74" s="258"/>
-      <c r="Q74" s="258"/>
-      <c r="R74" s="258"/>
-      <c r="S74" s="258"/>
-      <c r="T74" s="258"/>
-      <c r="U74" s="258"/>
-      <c r="V74" s="258"/>
-      <c r="W74" s="258"/>
-      <c r="X74" s="249"/>
-      <c r="Y74" s="250"/>
-      <c r="Z74" s="249"/>
-      <c r="AA74" s="250"/>
-      <c r="AB74" s="249"/>
-      <c r="AC74" s="250"/>
-      <c r="AD74" s="249"/>
-      <c r="AE74" s="250"/>
-      <c r="AF74" s="249"/>
-      <c r="AG74" s="250"/>
-      <c r="AH74" s="249"/>
-      <c r="AI74" s="250"/>
-      <c r="AJ74" s="249"/>
-      <c r="AK74" s="250"/>
-      <c r="AL74" s="249"/>
-      <c r="AM74" s="250"/>
-      <c r="AN74" s="249"/>
-      <c r="AO74" s="250"/>
-      <c r="AP74" s="249"/>
-      <c r="AQ74" s="250"/>
-      <c r="AR74" s="251"/>
-      <c r="AS74" s="252"/>
-      <c r="AT74" s="253"/>
-      <c r="AU74" s="253"/>
+      <c r="A74" s="244"/>
+      <c r="B74" s="244"/>
+      <c r="C74" s="245"/>
+      <c r="D74" s="257"/>
+      <c r="E74" s="257"/>
+      <c r="F74" s="257"/>
+      <c r="G74" s="257"/>
+      <c r="H74" s="257"/>
+      <c r="I74" s="257"/>
+      <c r="J74" s="257"/>
+      <c r="K74" s="257"/>
+      <c r="L74" s="257"/>
+      <c r="M74" s="257"/>
+      <c r="N74" s="257"/>
+      <c r="O74" s="257"/>
+      <c r="P74" s="257"/>
+      <c r="Q74" s="257"/>
+      <c r="R74" s="257"/>
+      <c r="S74" s="257"/>
+      <c r="T74" s="257"/>
+      <c r="U74" s="257"/>
+      <c r="V74" s="257"/>
+      <c r="W74" s="257"/>
+      <c r="X74" s="248"/>
+      <c r="Y74" s="249"/>
+      <c r="Z74" s="248"/>
+      <c r="AA74" s="249"/>
+      <c r="AB74" s="248"/>
+      <c r="AC74" s="249"/>
+      <c r="AD74" s="248"/>
+      <c r="AE74" s="249"/>
+      <c r="AF74" s="248"/>
+      <c r="AG74" s="249"/>
+      <c r="AH74" s="248"/>
+      <c r="AI74" s="249"/>
+      <c r="AJ74" s="248"/>
+      <c r="AK74" s="249"/>
+      <c r="AL74" s="248"/>
+      <c r="AM74" s="249"/>
+      <c r="AN74" s="248"/>
+      <c r="AO74" s="249"/>
+      <c r="AP74" s="248"/>
+      <c r="AQ74" s="249"/>
+      <c r="AR74" s="250"/>
+      <c r="AS74" s="251"/>
+      <c r="AT74" s="252"/>
+      <c r="AU74" s="252"/>
     </row>
     <row r="75" spans="1:50" ht="9.75" customHeight="1" thickTop="1">
-      <c r="A75" s="259"/>
-      <c r="B75" s="259"/>
-      <c r="C75" s="260"/>
-      <c r="D75" s="257"/>
-      <c r="E75" s="257"/>
-      <c r="F75" s="257"/>
-      <c r="G75" s="257"/>
-      <c r="H75" s="257"/>
-      <c r="I75" s="257"/>
-      <c r="J75" s="257"/>
-      <c r="K75" s="257"/>
-      <c r="L75" s="257"/>
-      <c r="M75" s="257"/>
-      <c r="N75" s="257"/>
-      <c r="O75" s="257"/>
-      <c r="P75" s="257"/>
-      <c r="Q75" s="257"/>
-      <c r="R75" s="257"/>
-      <c r="S75" s="257"/>
-      <c r="T75" s="257"/>
-      <c r="U75" s="257"/>
-      <c r="V75" s="257"/>
-      <c r="W75" s="257"/>
-      <c r="X75" s="247"/>
-      <c r="Y75" s="248"/>
-      <c r="Z75" s="247"/>
-      <c r="AA75" s="248"/>
-      <c r="AB75" s="247"/>
-      <c r="AC75" s="248"/>
-      <c r="AD75" s="247"/>
-      <c r="AE75" s="248"/>
-      <c r="AF75" s="247"/>
-      <c r="AG75" s="248"/>
-      <c r="AH75" s="247"/>
-      <c r="AI75" s="248"/>
-      <c r="AJ75" s="247"/>
-      <c r="AK75" s="248"/>
-      <c r="AL75" s="247"/>
-      <c r="AM75" s="248"/>
-      <c r="AN75" s="247"/>
-      <c r="AO75" s="248"/>
-      <c r="AP75" s="247"/>
-      <c r="AQ75" s="248"/>
-      <c r="AR75" s="254"/>
-      <c r="AS75" s="255"/>
-      <c r="AT75" s="256"/>
-      <c r="AU75" s="256"/>
+      <c r="A75" s="258"/>
+      <c r="B75" s="258"/>
+      <c r="C75" s="259"/>
+      <c r="D75" s="256"/>
+      <c r="E75" s="256"/>
+      <c r="F75" s="256"/>
+      <c r="G75" s="256"/>
+      <c r="H75" s="256"/>
+      <c r="I75" s="256"/>
+      <c r="J75" s="256"/>
+      <c r="K75" s="256"/>
+      <c r="L75" s="256"/>
+      <c r="M75" s="256"/>
+      <c r="N75" s="256"/>
+      <c r="O75" s="256"/>
+      <c r="P75" s="256"/>
+      <c r="Q75" s="256"/>
+      <c r="R75" s="256"/>
+      <c r="S75" s="256"/>
+      <c r="T75" s="256"/>
+      <c r="U75" s="256"/>
+      <c r="V75" s="256"/>
+      <c r="W75" s="256"/>
+      <c r="X75" s="246"/>
+      <c r="Y75" s="247"/>
+      <c r="Z75" s="246"/>
+      <c r="AA75" s="247"/>
+      <c r="AB75" s="246"/>
+      <c r="AC75" s="247"/>
+      <c r="AD75" s="246"/>
+      <c r="AE75" s="247"/>
+      <c r="AF75" s="246"/>
+      <c r="AG75" s="247"/>
+      <c r="AH75" s="246"/>
+      <c r="AI75" s="247"/>
+      <c r="AJ75" s="246"/>
+      <c r="AK75" s="247"/>
+      <c r="AL75" s="246"/>
+      <c r="AM75" s="247"/>
+      <c r="AN75" s="246"/>
+      <c r="AO75" s="247"/>
+      <c r="AP75" s="246"/>
+      <c r="AQ75" s="247"/>
+      <c r="AR75" s="253"/>
+      <c r="AS75" s="254"/>
+      <c r="AT75" s="255"/>
+      <c r="AU75" s="255"/>
       <c r="AV75" s="16"/>
       <c r="AW75" s="16"/>
       <c r="AX75" s="16"/>
@@ -51939,16 +51937,14 @@
   <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" style="5" customWidth="1"/>
-    <col min="4" max="43" width="2.7109375" style="5" customWidth="1"/>
-    <col min="44" max="47" width="3.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="47" width="2.7109375" style="5" customWidth="1"/>
     <col min="48" max="16384" width="3.140625" style="5"/>
   </cols>
   <sheetData>
@@ -52053,7 +52049,7 @@
     <row r="3" spans="1:47" ht="13.5" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="35"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="17"/>
@@ -52102,7 +52098,7 @@
     <row r="4" spans="1:47" ht="13.5" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="33"/>
-      <c r="C4" s="36"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
       <c r="F4" s="30"/>
@@ -52151,7 +52147,7 @@
     <row r="5" spans="1:47" ht="13.5" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="32"/>
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
@@ -52200,7 +52196,7 @@
     <row r="6" spans="1:47" ht="13.5" customHeight="1" thickBot="1">
       <c r="A6" s="22"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="37"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="19"/>
       <c r="E6" s="20"/>
       <c r="F6" s="19"/>
@@ -52324,7 +52320,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.43307086614173201" bottom="0.118110236220472" header="0.118110236220472" footer="0.118110236220472"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"源ノ角ゴシック Normal,Bold"&amp;11日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;5&amp;D　&amp;T　
@@ -52339,16 +52335,15 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="5" customWidth="1"/>
-    <col min="3" max="43" width="2.7109375" style="5" customWidth="1"/>
-    <col min="44" max="47" width="3.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="47" width="2.7109375" style="5" customWidth="1"/>
     <col min="48" max="16384" width="3.140625" style="5"/>
   </cols>
   <sheetData>
@@ -52501,7 +52496,7 @@
     <row r="4" spans="1:47" ht="13.5" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="33"/>
-      <c r="C4" s="40"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
       <c r="F4" s="32"/>
@@ -52550,47 +52545,47 @@
     <row r="5" spans="1:47" ht="13.5" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="33"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
       <c r="AR5" s="32"/>
       <c r="AS5" s="34"/>
       <c r="AT5" s="34"/>
@@ -52599,7 +52594,7 @@
     <row r="6" spans="1:47" ht="13.5" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="33"/>
-      <c r="C6" s="40"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
       <c r="F6" s="30"/>
@@ -52648,7 +52643,7 @@
     <row r="7" spans="1:47" ht="13.5" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="33"/>
-      <c r="C7" s="40"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
@@ -52738,10 +52733,10 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="19"/>
       <c r="AQ8" s="20"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
     </row>
     <row r="9" spans="1:47" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:47" ht="13.5" customHeight="1"/>
@@ -52835,7 +52830,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.43307086614173201" bottom="0.74803149606299202" header="0.118110236220472" footer="0.118110236220472"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"源ノ角ゴシック Normal,Bold"&amp;11日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;5&amp;D　&amp;T　
@@ -52851,16 +52846,14 @@
   <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="5" customWidth="1"/>
-    <col min="4" max="43" width="2.7109375" style="5" customWidth="1"/>
-    <col min="44" max="47" width="3.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="47" width="2.7109375" style="5" customWidth="1"/>
     <col min="48" max="49" width="3.28515625" style="5" customWidth="1"/>
     <col min="50" max="57" width="2.42578125" style="5" customWidth="1"/>
     <col min="58" max="16384" width="1.5703125" style="5"/>
@@ -52967,7 +52960,7 @@
     <row r="3" spans="1:47" ht="13.5" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="35"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="17"/>
@@ -53016,7 +53009,7 @@
     <row r="4" spans="1:47" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="22"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="37"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
       <c r="F4" s="19"/>
@@ -53120,7 +53113,7 @@
     <mergeCell ref="L3:M4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.43307086614173201" bottom="0.118110236220472" header="0.118110236220472" footer="0.118110236220472"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;11日別勤務表&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;5&amp;D　&amp;T　
@@ -53136,16 +53129,14 @@
   <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="5" customWidth="1"/>
-    <col min="4" max="43" width="2.7109375" style="5" customWidth="1"/>
-    <col min="44" max="47" width="3.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="47" width="2.7109375" style="5" customWidth="1"/>
     <col min="48" max="49" width="3.28515625" style="5" customWidth="1"/>
     <col min="50" max="57" width="2.42578125" style="5" customWidth="1"/>
     <col min="58" max="16384" width="1.5703125" style="5"/>
@@ -53301,7 +53292,7 @@
     <row r="4" spans="1:47" ht="13.5" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="33"/>
-      <c r="C4" s="40"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
       <c r="F4" s="32"/>
@@ -53350,47 +53341,47 @@
     <row r="5" spans="1:47" ht="13.5" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="33"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
       <c r="AR5" s="32"/>
       <c r="AS5" s="34"/>
       <c r="AT5" s="34"/>
@@ -53440,10 +53431,10 @@
       <c r="AO6" s="20"/>
       <c r="AP6" s="19"/>
       <c r="AQ6" s="20"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="42"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
     </row>
     <row r="7" spans="1:47" ht="13.5" customHeight="1"/>
     <row r="8" spans="1:47" ht="13.5" customHeight="1"/>
@@ -53521,7 +53512,7 @@
     <mergeCell ref="J3:K4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.43307086614173229" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;11日別勤務表&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;5&amp;D　&amp;T　
@@ -53537,16 +53528,14 @@
   <dimension ref="A1:AU34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="AT32" sqref="AT31:AT32"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="5" customWidth="1"/>
-    <col min="4" max="43" width="2.7109375" style="5" customWidth="1"/>
-    <col min="44" max="47" width="3.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="47" width="2.7109375" style="5" customWidth="1"/>
     <col min="48" max="49" width="3.28515625" style="5" customWidth="1"/>
     <col min="50" max="57" width="2.42578125" style="5" customWidth="1"/>
     <col min="58" max="16384" width="1.5703125" style="5"/>
@@ -53653,7 +53642,7 @@
     <row r="3" spans="1:47" ht="13.5" customHeight="1">
       <c r="A3" s="21"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="23"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
       <c r="F3" s="17"/>
@@ -53702,7 +53691,7 @@
     <row r="4" spans="1:47" ht="13.5" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="33"/>
-      <c r="C4" s="40"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
       <c r="F4" s="32"/>
@@ -53751,47 +53740,47 @@
     <row r="5" spans="1:47" ht="13.5" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="33"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="39"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
       <c r="AR5" s="32"/>
       <c r="AS5" s="34"/>
       <c r="AT5" s="34"/>
@@ -53800,7 +53789,7 @@
     <row r="6" spans="1:47" ht="13.5" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="33"/>
-      <c r="C6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
       <c r="F6" s="30"/>
@@ -53849,7 +53838,7 @@
     <row r="7" spans="1:47" ht="13.5" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="33"/>
-      <c r="C7" s="40"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
@@ -53898,7 +53887,7 @@
     <row r="8" spans="1:47" ht="13.5" customHeight="1" thickBot="1">
       <c r="A8" s="22"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
       <c r="F8" s="19"/>
@@ -53939,10 +53928,10 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="19"/>
       <c r="AQ8" s="20"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
     </row>
     <row r="9" spans="1:47" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:47" ht="13.5" customHeight="1"/>
@@ -54039,7 +54028,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.43307086614173229" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;11日別勤務表&amp;R&amp;5ABC</oddHeader>
@@ -54054,7 +54043,7 @@
   <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AU8"/>
+      <selection activeCell="A9" sqref="A9:AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -54266,46 +54255,46 @@
       <c r="A5" s="150"/>
       <c r="B5" s="151"/>
       <c r="C5" s="155"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="39"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
       <c r="AR5" s="32"/>
       <c r="AS5" s="34"/>
       <c r="AT5" s="34"/>
@@ -54453,10 +54442,10 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="19"/>
       <c r="AQ8" s="20"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
     </row>
     <row r="9" spans="1:47" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="146"/>
@@ -56226,7 +56215,7 @@
     <row r="4" spans="1:47" ht="15" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="18"/>
-      <c r="C4" s="23"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
       <c r="F4" s="17"/>
@@ -56275,7 +56264,7 @@
     <row r="5" spans="1:47" ht="15" customHeight="1">
       <c r="A5" s="34"/>
       <c r="B5" s="33"/>
-      <c r="C5" s="40"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="30"/>
       <c r="E5" s="31"/>
       <c r="F5" s="30"/>
@@ -56324,7 +56313,7 @@
     <row r="6" spans="1:47" ht="15" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="33"/>
-      <c r="C6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
@@ -56373,7 +56362,7 @@
     <row r="7" spans="1:47" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="22"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
       <c r="F7" s="19"/>
@@ -56420,102 +56409,102 @@
       <c r="AU7" s="22"/>
     </row>
     <row r="8" spans="1:47" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="146"/>
-      <c r="S8" s="146"/>
-      <c r="T8" s="146"/>
-      <c r="U8" s="146"/>
-      <c r="V8" s="146"/>
-      <c r="W8" s="146"/>
-      <c r="X8" s="146"/>
-      <c r="Y8" s="146"/>
-      <c r="Z8" s="146"/>
-      <c r="AA8" s="146"/>
-      <c r="AB8" s="146"/>
-      <c r="AC8" s="146"/>
-      <c r="AD8" s="146"/>
-      <c r="AE8" s="146"/>
-      <c r="AF8" s="146"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="146"/>
-      <c r="AJ8" s="146"/>
-      <c r="AK8" s="146"/>
-      <c r="AL8" s="146"/>
-      <c r="AM8" s="146"/>
-      <c r="AN8" s="146"/>
-      <c r="AO8" s="146"/>
-      <c r="AP8" s="146"/>
-      <c r="AQ8" s="146"/>
-      <c r="AR8" s="146"/>
-      <c r="AS8" s="146"/>
-      <c r="AT8" s="146"/>
-      <c r="AU8" s="146"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="178"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="178"/>
+      <c r="R8" s="178"/>
+      <c r="S8" s="178"/>
+      <c r="T8" s="178"/>
+      <c r="U8" s="178"/>
+      <c r="V8" s="178"/>
+      <c r="W8" s="178"/>
+      <c r="X8" s="178"/>
+      <c r="Y8" s="178"/>
+      <c r="Z8" s="178"/>
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="178"/>
+      <c r="AC8" s="178"/>
+      <c r="AD8" s="178"/>
+      <c r="AE8" s="178"/>
+      <c r="AF8" s="178"/>
+      <c r="AG8" s="178"/>
+      <c r="AH8" s="178"/>
+      <c r="AI8" s="178"/>
+      <c r="AJ8" s="178"/>
+      <c r="AK8" s="178"/>
+      <c r="AL8" s="178"/>
+      <c r="AM8" s="178"/>
+      <c r="AN8" s="178"/>
+      <c r="AO8" s="178"/>
+      <c r="AP8" s="178"/>
+      <c r="AQ8" s="178"/>
+      <c r="AR8" s="178"/>
+      <c r="AS8" s="178"/>
+      <c r="AT8" s="178"/>
+      <c r="AU8" s="178"/>
     </row>
     <row r="9" spans="1:47" ht="15" customHeight="1">
-      <c r="A9" s="147"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
-      <c r="AB9" s="147"/>
-      <c r="AC9" s="147"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="147"/>
-      <c r="AF9" s="147"/>
-      <c r="AG9" s="147"/>
-      <c r="AH9" s="147"/>
-      <c r="AI9" s="147"/>
-      <c r="AJ9" s="147"/>
-      <c r="AK9" s="147"/>
-      <c r="AL9" s="147"/>
-      <c r="AM9" s="147"/>
-      <c r="AN9" s="147"/>
-      <c r="AO9" s="147"/>
-      <c r="AP9" s="147"/>
-      <c r="AQ9" s="147"/>
-      <c r="AR9" s="147"/>
-      <c r="AS9" s="147"/>
-      <c r="AT9" s="147"/>
-      <c r="AU9" s="147"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="179"/>
+      <c r="T9" s="179"/>
+      <c r="U9" s="179"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="179"/>
+      <c r="X9" s="179"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="179"/>
+      <c r="AC9" s="179"/>
+      <c r="AD9" s="179"/>
+      <c r="AE9" s="179"/>
+      <c r="AF9" s="179"/>
+      <c r="AG9" s="179"/>
+      <c r="AH9" s="179"/>
+      <c r="AI9" s="179"/>
+      <c r="AJ9" s="179"/>
+      <c r="AK9" s="179"/>
+      <c r="AL9" s="179"/>
+      <c r="AM9" s="179"/>
+      <c r="AN9" s="179"/>
+      <c r="AO9" s="179"/>
+      <c r="AP9" s="179"/>
+      <c r="AQ9" s="179"/>
+      <c r="AR9" s="179"/>
+      <c r="AS9" s="179"/>
+      <c r="AT9" s="179"/>
+      <c r="AU9" s="179"/>
     </row>
     <row r="10" spans="1:47" ht="15" customHeight="1">
       <c r="A10" s="44"/>
@@ -57008,102 +56997,102 @@
       <c r="AU19" s="76"/>
     </row>
     <row r="20" spans="1:47" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="178"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="178"/>
-      <c r="P20" s="178"/>
-      <c r="Q20" s="178"/>
-      <c r="R20" s="178"/>
-      <c r="S20" s="178"/>
-      <c r="T20" s="178"/>
-      <c r="U20" s="178"/>
-      <c r="V20" s="178"/>
-      <c r="W20" s="178"/>
-      <c r="X20" s="178"/>
-      <c r="Y20" s="178"/>
-      <c r="Z20" s="178"/>
-      <c r="AA20" s="178"/>
-      <c r="AB20" s="178"/>
-      <c r="AC20" s="178"/>
-      <c r="AD20" s="178"/>
-      <c r="AE20" s="178"/>
-      <c r="AF20" s="178"/>
-      <c r="AG20" s="178"/>
-      <c r="AH20" s="178"/>
-      <c r="AI20" s="178"/>
-      <c r="AJ20" s="178"/>
-      <c r="AK20" s="178"/>
-      <c r="AL20" s="178"/>
-      <c r="AM20" s="178"/>
-      <c r="AN20" s="178"/>
-      <c r="AO20" s="178"/>
-      <c r="AP20" s="178"/>
-      <c r="AQ20" s="178"/>
-      <c r="AR20" s="178"/>
-      <c r="AS20" s="178"/>
-      <c r="AT20" s="178"/>
-      <c r="AU20" s="178"/>
+      <c r="A20" s="180"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="180"/>
+      <c r="P20" s="180"/>
+      <c r="Q20" s="180"/>
+      <c r="R20" s="180"/>
+      <c r="S20" s="180"/>
+      <c r="T20" s="180"/>
+      <c r="U20" s="180"/>
+      <c r="V20" s="180"/>
+      <c r="W20" s="180"/>
+      <c r="X20" s="180"/>
+      <c r="Y20" s="180"/>
+      <c r="Z20" s="180"/>
+      <c r="AA20" s="180"/>
+      <c r="AB20" s="180"/>
+      <c r="AC20" s="180"/>
+      <c r="AD20" s="180"/>
+      <c r="AE20" s="180"/>
+      <c r="AF20" s="180"/>
+      <c r="AG20" s="180"/>
+      <c r="AH20" s="180"/>
+      <c r="AI20" s="180"/>
+      <c r="AJ20" s="180"/>
+      <c r="AK20" s="180"/>
+      <c r="AL20" s="180"/>
+      <c r="AM20" s="180"/>
+      <c r="AN20" s="180"/>
+      <c r="AO20" s="180"/>
+      <c r="AP20" s="180"/>
+      <c r="AQ20" s="180"/>
+      <c r="AR20" s="180"/>
+      <c r="AS20" s="180"/>
+      <c r="AT20" s="180"/>
+      <c r="AU20" s="180"/>
     </row>
     <row r="21" spans="1:47" ht="15" customHeight="1">
-      <c r="A21" s="147"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="147"/>
-      <c r="Z21" s="147"/>
-      <c r="AA21" s="147"/>
-      <c r="AB21" s="147"/>
-      <c r="AC21" s="147"/>
-      <c r="AD21" s="147"/>
-      <c r="AE21" s="147"/>
-      <c r="AF21" s="147"/>
-      <c r="AG21" s="147"/>
-      <c r="AH21" s="147"/>
-      <c r="AI21" s="147"/>
-      <c r="AJ21" s="147"/>
-      <c r="AK21" s="147"/>
-      <c r="AL21" s="147"/>
-      <c r="AM21" s="147"/>
-      <c r="AN21" s="147"/>
-      <c r="AO21" s="147"/>
-      <c r="AP21" s="147"/>
-      <c r="AQ21" s="147"/>
-      <c r="AR21" s="147"/>
-      <c r="AS21" s="147"/>
-      <c r="AT21" s="147"/>
-      <c r="AU21" s="147"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="179"/>
+      <c r="P21" s="179"/>
+      <c r="Q21" s="179"/>
+      <c r="R21" s="179"/>
+      <c r="S21" s="179"/>
+      <c r="T21" s="179"/>
+      <c r="U21" s="179"/>
+      <c r="V21" s="179"/>
+      <c r="W21" s="179"/>
+      <c r="X21" s="179"/>
+      <c r="Y21" s="179"/>
+      <c r="Z21" s="179"/>
+      <c r="AA21" s="179"/>
+      <c r="AB21" s="179"/>
+      <c r="AC21" s="179"/>
+      <c r="AD21" s="179"/>
+      <c r="AE21" s="179"/>
+      <c r="AF21" s="179"/>
+      <c r="AG21" s="179"/>
+      <c r="AH21" s="179"/>
+      <c r="AI21" s="179"/>
+      <c r="AJ21" s="179"/>
+      <c r="AK21" s="179"/>
+      <c r="AL21" s="179"/>
+      <c r="AM21" s="179"/>
+      <c r="AN21" s="179"/>
+      <c r="AO21" s="179"/>
+      <c r="AP21" s="179"/>
+      <c r="AQ21" s="179"/>
+      <c r="AR21" s="179"/>
+      <c r="AS21" s="179"/>
+      <c r="AT21" s="179"/>
+      <c r="AU21" s="179"/>
     </row>
     <row r="22" spans="1:47" ht="15" customHeight="1">
       <c r="A22" s="44"/>
@@ -57694,102 +57683,102 @@
       <c r="AU33" s="60"/>
     </row>
     <row r="34" spans="1:47" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="178"/>
-      <c r="B34" s="178"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="178"/>
-      <c r="S34" s="178"/>
-      <c r="T34" s="178"/>
-      <c r="U34" s="178"/>
-      <c r="V34" s="178"/>
-      <c r="W34" s="178"/>
-      <c r="X34" s="178"/>
-      <c r="Y34" s="178"/>
-      <c r="Z34" s="178"/>
-      <c r="AA34" s="178"/>
-      <c r="AB34" s="178"/>
-      <c r="AC34" s="178"/>
-      <c r="AD34" s="178"/>
-      <c r="AE34" s="178"/>
-      <c r="AF34" s="178"/>
-      <c r="AG34" s="178"/>
-      <c r="AH34" s="178"/>
-      <c r="AI34" s="178"/>
-      <c r="AJ34" s="178"/>
-      <c r="AK34" s="178"/>
-      <c r="AL34" s="178"/>
-      <c r="AM34" s="178"/>
-      <c r="AN34" s="178"/>
-      <c r="AO34" s="178"/>
-      <c r="AP34" s="178"/>
-      <c r="AQ34" s="178"/>
-      <c r="AR34" s="178"/>
-      <c r="AS34" s="178"/>
-      <c r="AT34" s="178"/>
-      <c r="AU34" s="178"/>
+      <c r="A34" s="180"/>
+      <c r="B34" s="180"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="180"/>
+      <c r="K34" s="180"/>
+      <c r="L34" s="180"/>
+      <c r="M34" s="180"/>
+      <c r="N34" s="180"/>
+      <c r="O34" s="180"/>
+      <c r="P34" s="180"/>
+      <c r="Q34" s="180"/>
+      <c r="R34" s="180"/>
+      <c r="S34" s="180"/>
+      <c r="T34" s="180"/>
+      <c r="U34" s="180"/>
+      <c r="V34" s="180"/>
+      <c r="W34" s="180"/>
+      <c r="X34" s="180"/>
+      <c r="Y34" s="180"/>
+      <c r="Z34" s="180"/>
+      <c r="AA34" s="180"/>
+      <c r="AB34" s="180"/>
+      <c r="AC34" s="180"/>
+      <c r="AD34" s="180"/>
+      <c r="AE34" s="180"/>
+      <c r="AF34" s="180"/>
+      <c r="AG34" s="180"/>
+      <c r="AH34" s="180"/>
+      <c r="AI34" s="180"/>
+      <c r="AJ34" s="180"/>
+      <c r="AK34" s="180"/>
+      <c r="AL34" s="180"/>
+      <c r="AM34" s="180"/>
+      <c r="AN34" s="180"/>
+      <c r="AO34" s="180"/>
+      <c r="AP34" s="180"/>
+      <c r="AQ34" s="180"/>
+      <c r="AR34" s="180"/>
+      <c r="AS34" s="180"/>
+      <c r="AT34" s="180"/>
+      <c r="AU34" s="180"/>
     </row>
     <row r="35" spans="1:47" ht="15" customHeight="1">
-      <c r="A35" s="147"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="147"/>
-      <c r="O35" s="147"/>
-      <c r="P35" s="147"/>
-      <c r="Q35" s="147"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="147"/>
-      <c r="V35" s="147"/>
-      <c r="W35" s="147"/>
-      <c r="X35" s="147"/>
-      <c r="Y35" s="147"/>
-      <c r="Z35" s="147"/>
-      <c r="AA35" s="147"/>
-      <c r="AB35" s="147"/>
-      <c r="AC35" s="147"/>
-      <c r="AD35" s="147"/>
-      <c r="AE35" s="147"/>
-      <c r="AF35" s="147"/>
-      <c r="AG35" s="147"/>
-      <c r="AH35" s="147"/>
-      <c r="AI35" s="147"/>
-      <c r="AJ35" s="147"/>
-      <c r="AK35" s="147"/>
-      <c r="AL35" s="147"/>
-      <c r="AM35" s="147"/>
-      <c r="AN35" s="147"/>
-      <c r="AO35" s="147"/>
-      <c r="AP35" s="147"/>
-      <c r="AQ35" s="147"/>
-      <c r="AR35" s="147"/>
-      <c r="AS35" s="147"/>
-      <c r="AT35" s="147"/>
-      <c r="AU35" s="147"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="179"/>
+      <c r="L35" s="179"/>
+      <c r="M35" s="179"/>
+      <c r="N35" s="179"/>
+      <c r="O35" s="179"/>
+      <c r="P35" s="179"/>
+      <c r="Q35" s="179"/>
+      <c r="R35" s="179"/>
+      <c r="S35" s="179"/>
+      <c r="T35" s="179"/>
+      <c r="U35" s="179"/>
+      <c r="V35" s="179"/>
+      <c r="W35" s="179"/>
+      <c r="X35" s="179"/>
+      <c r="Y35" s="179"/>
+      <c r="Z35" s="179"/>
+      <c r="AA35" s="179"/>
+      <c r="AB35" s="179"/>
+      <c r="AC35" s="179"/>
+      <c r="AD35" s="179"/>
+      <c r="AE35" s="179"/>
+      <c r="AF35" s="179"/>
+      <c r="AG35" s="179"/>
+      <c r="AH35" s="179"/>
+      <c r="AI35" s="179"/>
+      <c r="AJ35" s="179"/>
+      <c r="AK35" s="179"/>
+      <c r="AL35" s="179"/>
+      <c r="AM35" s="179"/>
+      <c r="AN35" s="179"/>
+      <c r="AO35" s="179"/>
+      <c r="AP35" s="179"/>
+      <c r="AQ35" s="179"/>
+      <c r="AR35" s="179"/>
+      <c r="AS35" s="179"/>
+      <c r="AT35" s="179"/>
+      <c r="AU35" s="179"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1">
       <c r="A36" s="44"/>
@@ -60774,7 +60763,7 @@
     <row r="4" spans="1:47" ht="13.5" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="18"/>
-      <c r="C4" s="23"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
       <c r="F4" s="17"/>
@@ -60823,7 +60812,7 @@
     <row r="5" spans="1:47" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="22"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="19"/>
       <c r="E5" s="20"/>
       <c r="F5" s="19"/>
@@ -60870,102 +60859,102 @@
       <c r="AU5" s="22"/>
     </row>
     <row r="6" spans="1:47" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="146"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="146"/>
-      <c r="AF6" s="146"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="146"/>
-      <c r="AM6" s="146"/>
-      <c r="AN6" s="146"/>
-      <c r="AO6" s="146"/>
-      <c r="AP6" s="146"/>
-      <c r="AQ6" s="146"/>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="146"/>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="146"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="178"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="178"/>
+      <c r="T6" s="178"/>
+      <c r="U6" s="178"/>
+      <c r="V6" s="178"/>
+      <c r="W6" s="178"/>
+      <c r="X6" s="178"/>
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="178"/>
+      <c r="AA6" s="178"/>
+      <c r="AB6" s="178"/>
+      <c r="AC6" s="178"/>
+      <c r="AD6" s="178"/>
+      <c r="AE6" s="178"/>
+      <c r="AF6" s="178"/>
+      <c r="AG6" s="178"/>
+      <c r="AH6" s="178"/>
+      <c r="AI6" s="178"/>
+      <c r="AJ6" s="178"/>
+      <c r="AK6" s="178"/>
+      <c r="AL6" s="178"/>
+      <c r="AM6" s="178"/>
+      <c r="AN6" s="178"/>
+      <c r="AO6" s="178"/>
+      <c r="AP6" s="178"/>
+      <c r="AQ6" s="178"/>
+      <c r="AR6" s="178"/>
+      <c r="AS6" s="178"/>
+      <c r="AT6" s="178"/>
+      <c r="AU6" s="178"/>
     </row>
     <row r="7" spans="1:47" ht="15" customHeight="1">
-      <c r="A7" s="147"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="147"/>
-      <c r="W7" s="147"/>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="147"/>
-      <c r="Z7" s="147"/>
-      <c r="AA7" s="147"/>
-      <c r="AB7" s="147"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="147"/>
-      <c r="AF7" s="147"/>
-      <c r="AG7" s="147"/>
-      <c r="AH7" s="147"/>
-      <c r="AI7" s="147"/>
-      <c r="AJ7" s="147"/>
-      <c r="AK7" s="147"/>
-      <c r="AL7" s="147"/>
-      <c r="AM7" s="147"/>
-      <c r="AN7" s="147"/>
-      <c r="AO7" s="147"/>
-      <c r="AP7" s="147"/>
-      <c r="AQ7" s="147"/>
-      <c r="AR7" s="147"/>
-      <c r="AS7" s="147"/>
-      <c r="AT7" s="147"/>
-      <c r="AU7" s="147"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="179"/>
+      <c r="U7" s="179"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
+      <c r="Y7" s="179"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
+      <c r="AC7" s="179"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="179"/>
+      <c r="AG7" s="179"/>
+      <c r="AH7" s="179"/>
+      <c r="AI7" s="179"/>
+      <c r="AJ7" s="179"/>
+      <c r="AK7" s="179"/>
+      <c r="AL7" s="179"/>
+      <c r="AM7" s="179"/>
+      <c r="AN7" s="179"/>
+      <c r="AO7" s="179"/>
+      <c r="AP7" s="179"/>
+      <c r="AQ7" s="179"/>
+      <c r="AR7" s="179"/>
+      <c r="AS7" s="179"/>
+      <c r="AT7" s="179"/>
+      <c r="AU7" s="179"/>
     </row>
     <row r="8" spans="1:47" ht="15" customHeight="1">
       <c r="A8" s="11"/>
@@ -61069,45 +61058,45 @@
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="193"/>
+      <c r="D10" s="195"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="193"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="44"/>
-      <c r="H10" s="193"/>
+      <c r="H10" s="195"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="193"/>
+      <c r="J10" s="195"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="193"/>
+      <c r="L10" s="195"/>
       <c r="M10" s="44"/>
-      <c r="N10" s="193"/>
+      <c r="N10" s="195"/>
       <c r="O10" s="44"/>
-      <c r="P10" s="193"/>
+      <c r="P10" s="195"/>
       <c r="Q10" s="44"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="192"/>
-      <c r="T10" s="193"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="195"/>
       <c r="U10" s="44"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="192"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="192"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="192"/>
-      <c r="AB10" s="191"/>
-      <c r="AC10" s="192"/>
-      <c r="AD10" s="191"/>
-      <c r="AE10" s="192"/>
-      <c r="AF10" s="191"/>
-      <c r="AG10" s="192"/>
-      <c r="AH10" s="191"/>
-      <c r="AI10" s="192"/>
-      <c r="AJ10" s="191"/>
-      <c r="AK10" s="192"/>
-      <c r="AL10" s="191"/>
-      <c r="AM10" s="192"/>
-      <c r="AN10" s="191"/>
-      <c r="AO10" s="192"/>
-      <c r="AP10" s="193"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="193"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="193"/>
+      <c r="AE10" s="194"/>
+      <c r="AF10" s="193"/>
+      <c r="AG10" s="194"/>
+      <c r="AH10" s="193"/>
+      <c r="AI10" s="194"/>
+      <c r="AJ10" s="193"/>
+      <c r="AK10" s="194"/>
+      <c r="AL10" s="193"/>
+      <c r="AM10" s="194"/>
+      <c r="AN10" s="193"/>
+      <c r="AO10" s="194"/>
+      <c r="AP10" s="195"/>
       <c r="AQ10" s="44"/>
       <c r="AR10" s="102"/>
       <c r="AS10" s="103"/>
@@ -61115,53 +61104,53 @@
       <c r="AU10" s="103"/>
     </row>
     <row r="11" spans="1:47" ht="15" customHeight="1">
-      <c r="A11" s="181"/>
-      <c r="B11" s="182"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="184"/>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="190"/>
-      <c r="S11" s="190"/>
-      <c r="T11" s="184"/>
-      <c r="U11" s="184"/>
-      <c r="V11" s="184"/>
-      <c r="W11" s="184"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="190"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="190"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="190"/>
-      <c r="AF11" s="190"/>
-      <c r="AG11" s="190"/>
-      <c r="AH11" s="190"/>
-      <c r="AI11" s="190"/>
-      <c r="AJ11" s="190"/>
-      <c r="AK11" s="190"/>
-      <c r="AL11" s="190"/>
-      <c r="AM11" s="190"/>
-      <c r="AN11" s="190"/>
-      <c r="AO11" s="190"/>
-      <c r="AP11" s="184"/>
-      <c r="AQ11" s="184"/>
-      <c r="AR11" s="185"/>
-      <c r="AS11" s="186"/>
-      <c r="AT11" s="186"/>
-      <c r="AU11" s="186"/>
+      <c r="A11" s="183"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="186"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="186"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="192"/>
+      <c r="S11" s="192"/>
+      <c r="T11" s="186"/>
+      <c r="U11" s="186"/>
+      <c r="V11" s="186"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="192"/>
+      <c r="Y11" s="192"/>
+      <c r="Z11" s="192"/>
+      <c r="AA11" s="192"/>
+      <c r="AB11" s="192"/>
+      <c r="AC11" s="192"/>
+      <c r="AD11" s="192"/>
+      <c r="AE11" s="192"/>
+      <c r="AF11" s="192"/>
+      <c r="AG11" s="192"/>
+      <c r="AH11" s="192"/>
+      <c r="AI11" s="192"/>
+      <c r="AJ11" s="192"/>
+      <c r="AK11" s="192"/>
+      <c r="AL11" s="192"/>
+      <c r="AM11" s="192"/>
+      <c r="AN11" s="192"/>
+      <c r="AO11" s="192"/>
+      <c r="AP11" s="186"/>
+      <c r="AQ11" s="186"/>
+      <c r="AR11" s="187"/>
+      <c r="AS11" s="188"/>
+      <c r="AT11" s="188"/>
+      <c r="AU11" s="188"/>
     </row>
     <row r="12" spans="1:47" ht="15" customHeight="1">
       <c r="A12" s="68"/>
@@ -61262,102 +61251,102 @@
       <c r="AU13" s="76"/>
     </row>
     <row r="14" spans="1:47" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="178"/>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="178"/>
-      <c r="N14" s="178"/>
-      <c r="O14" s="178"/>
-      <c r="P14" s="178"/>
-      <c r="Q14" s="178"/>
-      <c r="R14" s="178"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="178"/>
-      <c r="U14" s="178"/>
-      <c r="V14" s="178"/>
-      <c r="W14" s="178"/>
-      <c r="X14" s="178"/>
-      <c r="Y14" s="178"/>
-      <c r="Z14" s="178"/>
-      <c r="AA14" s="178"/>
-      <c r="AB14" s="178"/>
-      <c r="AC14" s="178"/>
-      <c r="AD14" s="178"/>
-      <c r="AE14" s="178"/>
-      <c r="AF14" s="178"/>
-      <c r="AG14" s="178"/>
-      <c r="AH14" s="178"/>
-      <c r="AI14" s="178"/>
-      <c r="AJ14" s="178"/>
-      <c r="AK14" s="178"/>
-      <c r="AL14" s="178"/>
-      <c r="AM14" s="178"/>
-      <c r="AN14" s="178"/>
-      <c r="AO14" s="178"/>
-      <c r="AP14" s="178"/>
-      <c r="AQ14" s="178"/>
-      <c r="AR14" s="178"/>
-      <c r="AS14" s="178"/>
-      <c r="AT14" s="178"/>
-      <c r="AU14" s="178"/>
+      <c r="A14" s="180"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="180"/>
+      <c r="Q14" s="180"/>
+      <c r="R14" s="180"/>
+      <c r="S14" s="180"/>
+      <c r="T14" s="180"/>
+      <c r="U14" s="180"/>
+      <c r="V14" s="180"/>
+      <c r="W14" s="180"/>
+      <c r="X14" s="180"/>
+      <c r="Y14" s="180"/>
+      <c r="Z14" s="180"/>
+      <c r="AA14" s="180"/>
+      <c r="AB14" s="180"/>
+      <c r="AC14" s="180"/>
+      <c r="AD14" s="180"/>
+      <c r="AE14" s="180"/>
+      <c r="AF14" s="180"/>
+      <c r="AG14" s="180"/>
+      <c r="AH14" s="180"/>
+      <c r="AI14" s="180"/>
+      <c r="AJ14" s="180"/>
+      <c r="AK14" s="180"/>
+      <c r="AL14" s="180"/>
+      <c r="AM14" s="180"/>
+      <c r="AN14" s="180"/>
+      <c r="AO14" s="180"/>
+      <c r="AP14" s="180"/>
+      <c r="AQ14" s="180"/>
+      <c r="AR14" s="180"/>
+      <c r="AS14" s="180"/>
+      <c r="AT14" s="180"/>
+      <c r="AU14" s="180"/>
     </row>
     <row r="15" spans="1:47" ht="15" customHeight="1">
-      <c r="A15" s="147"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="147"/>
-      <c r="X15" s="147"/>
-      <c r="Y15" s="147"/>
-      <c r="Z15" s="147"/>
-      <c r="AA15" s="147"/>
-      <c r="AB15" s="147"/>
-      <c r="AC15" s="147"/>
-      <c r="AD15" s="147"/>
-      <c r="AE15" s="147"/>
-      <c r="AF15" s="147"/>
-      <c r="AG15" s="147"/>
-      <c r="AH15" s="147"/>
-      <c r="AI15" s="147"/>
-      <c r="AJ15" s="147"/>
-      <c r="AK15" s="147"/>
-      <c r="AL15" s="147"/>
-      <c r="AM15" s="147"/>
-      <c r="AN15" s="147"/>
-      <c r="AO15" s="147"/>
-      <c r="AP15" s="147"/>
-      <c r="AQ15" s="147"/>
-      <c r="AR15" s="147"/>
-      <c r="AS15" s="147"/>
-      <c r="AT15" s="147"/>
-      <c r="AU15" s="147"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="179"/>
+      <c r="N15" s="179"/>
+      <c r="O15" s="179"/>
+      <c r="P15" s="179"/>
+      <c r="Q15" s="179"/>
+      <c r="R15" s="179"/>
+      <c r="S15" s="179"/>
+      <c r="T15" s="179"/>
+      <c r="U15" s="179"/>
+      <c r="V15" s="179"/>
+      <c r="W15" s="179"/>
+      <c r="X15" s="179"/>
+      <c r="Y15" s="179"/>
+      <c r="Z15" s="179"/>
+      <c r="AA15" s="179"/>
+      <c r="AB15" s="179"/>
+      <c r="AC15" s="179"/>
+      <c r="AD15" s="179"/>
+      <c r="AE15" s="179"/>
+      <c r="AF15" s="179"/>
+      <c r="AG15" s="179"/>
+      <c r="AH15" s="179"/>
+      <c r="AI15" s="179"/>
+      <c r="AJ15" s="179"/>
+      <c r="AK15" s="179"/>
+      <c r="AL15" s="179"/>
+      <c r="AM15" s="179"/>
+      <c r="AN15" s="179"/>
+      <c r="AO15" s="179"/>
+      <c r="AP15" s="179"/>
+      <c r="AQ15" s="179"/>
+      <c r="AR15" s="179"/>
+      <c r="AS15" s="179"/>
+      <c r="AT15" s="179"/>
+      <c r="AU15" s="179"/>
     </row>
     <row r="16" spans="1:47" ht="15" customHeight="1">
       <c r="A16" s="11"/>
@@ -61461,45 +61450,45 @@
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="193"/>
+      <c r="D18" s="195"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="193"/>
+      <c r="F18" s="195"/>
       <c r="G18" s="44"/>
-      <c r="H18" s="193"/>
+      <c r="H18" s="195"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="193"/>
+      <c r="J18" s="195"/>
       <c r="K18" s="44"/>
-      <c r="L18" s="193"/>
+      <c r="L18" s="195"/>
       <c r="M18" s="44"/>
-      <c r="N18" s="193"/>
+      <c r="N18" s="195"/>
       <c r="O18" s="44"/>
-      <c r="P18" s="193"/>
+      <c r="P18" s="195"/>
       <c r="Q18" s="44"/>
-      <c r="R18" s="191"/>
-      <c r="S18" s="192"/>
-      <c r="T18" s="193"/>
+      <c r="R18" s="193"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="195"/>
       <c r="U18" s="44"/>
-      <c r="V18" s="191"/>
-      <c r="W18" s="192"/>
-      <c r="X18" s="191"/>
-      <c r="Y18" s="192"/>
-      <c r="Z18" s="191"/>
-      <c r="AA18" s="192"/>
-      <c r="AB18" s="191"/>
-      <c r="AC18" s="192"/>
-      <c r="AD18" s="191"/>
-      <c r="AE18" s="192"/>
-      <c r="AF18" s="191"/>
-      <c r="AG18" s="192"/>
-      <c r="AH18" s="191"/>
-      <c r="AI18" s="192"/>
-      <c r="AJ18" s="191"/>
-      <c r="AK18" s="192"/>
-      <c r="AL18" s="191"/>
-      <c r="AM18" s="192"/>
-      <c r="AN18" s="191"/>
-      <c r="AO18" s="192"/>
-      <c r="AP18" s="193"/>
+      <c r="V18" s="193"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="193"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="193"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="193"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="193"/>
+      <c r="AE18" s="194"/>
+      <c r="AF18" s="193"/>
+      <c r="AG18" s="194"/>
+      <c r="AH18" s="193"/>
+      <c r="AI18" s="194"/>
+      <c r="AJ18" s="193"/>
+      <c r="AK18" s="194"/>
+      <c r="AL18" s="193"/>
+      <c r="AM18" s="194"/>
+      <c r="AN18" s="193"/>
+      <c r="AO18" s="194"/>
+      <c r="AP18" s="195"/>
       <c r="AQ18" s="44"/>
       <c r="AR18" s="102"/>
       <c r="AS18" s="103"/>
@@ -61507,53 +61496,53 @@
       <c r="AU18" s="103"/>
     </row>
     <row r="19" spans="1:47" ht="15" customHeight="1">
-      <c r="A19" s="181"/>
-      <c r="B19" s="182"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="184"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="184"/>
-      <c r="N19" s="184"/>
-      <c r="O19" s="184"/>
-      <c r="P19" s="184"/>
-      <c r="Q19" s="184"/>
-      <c r="R19" s="184"/>
-      <c r="S19" s="184"/>
-      <c r="T19" s="184"/>
-      <c r="U19" s="184"/>
-      <c r="V19" s="190"/>
-      <c r="W19" s="190"/>
-      <c r="X19" s="190"/>
-      <c r="Y19" s="190"/>
-      <c r="Z19" s="190"/>
-      <c r="AA19" s="190"/>
-      <c r="AB19" s="190"/>
-      <c r="AC19" s="190"/>
-      <c r="AD19" s="190"/>
-      <c r="AE19" s="190"/>
-      <c r="AF19" s="190"/>
-      <c r="AG19" s="190"/>
-      <c r="AH19" s="190"/>
-      <c r="AI19" s="190"/>
-      <c r="AJ19" s="190"/>
-      <c r="AK19" s="190"/>
-      <c r="AL19" s="190"/>
-      <c r="AM19" s="190"/>
-      <c r="AN19" s="190"/>
-      <c r="AO19" s="190"/>
-      <c r="AP19" s="184"/>
-      <c r="AQ19" s="184"/>
-      <c r="AR19" s="185"/>
-      <c r="AS19" s="186"/>
-      <c r="AT19" s="186"/>
-      <c r="AU19" s="186"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="186"/>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="186"/>
+      <c r="S19" s="186"/>
+      <c r="T19" s="186"/>
+      <c r="U19" s="186"/>
+      <c r="V19" s="192"/>
+      <c r="W19" s="192"/>
+      <c r="X19" s="192"/>
+      <c r="Y19" s="192"/>
+      <c r="Z19" s="192"/>
+      <c r="AA19" s="192"/>
+      <c r="AB19" s="192"/>
+      <c r="AC19" s="192"/>
+      <c r="AD19" s="192"/>
+      <c r="AE19" s="192"/>
+      <c r="AF19" s="192"/>
+      <c r="AG19" s="192"/>
+      <c r="AH19" s="192"/>
+      <c r="AI19" s="192"/>
+      <c r="AJ19" s="192"/>
+      <c r="AK19" s="192"/>
+      <c r="AL19" s="192"/>
+      <c r="AM19" s="192"/>
+      <c r="AN19" s="192"/>
+      <c r="AO19" s="192"/>
+      <c r="AP19" s="186"/>
+      <c r="AQ19" s="186"/>
+      <c r="AR19" s="187"/>
+      <c r="AS19" s="188"/>
+      <c r="AT19" s="188"/>
+      <c r="AU19" s="188"/>
     </row>
     <row r="20" spans="1:47" ht="15" customHeight="1">
       <c r="A20" s="68"/>
@@ -61654,151 +61643,151 @@
       <c r="AU21" s="76"/>
     </row>
     <row r="22" spans="1:47" ht="15" customHeight="1">
-      <c r="A22" s="181"/>
-      <c r="B22" s="181"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="185"/>
-      <c r="M22" s="194"/>
-      <c r="N22" s="185"/>
-      <c r="O22" s="194"/>
-      <c r="P22" s="185"/>
-      <c r="Q22" s="194"/>
-      <c r="R22" s="185"/>
-      <c r="S22" s="194"/>
-      <c r="T22" s="185"/>
-      <c r="U22" s="194"/>
-      <c r="V22" s="185"/>
-      <c r="W22" s="194"/>
-      <c r="X22" s="179"/>
-      <c r="Y22" s="180"/>
-      <c r="Z22" s="179"/>
-      <c r="AA22" s="180"/>
-      <c r="AB22" s="179"/>
-      <c r="AC22" s="180"/>
-      <c r="AD22" s="179"/>
-      <c r="AE22" s="180"/>
-      <c r="AF22" s="179"/>
-      <c r="AG22" s="180"/>
-      <c r="AH22" s="179"/>
-      <c r="AI22" s="180"/>
-      <c r="AJ22" s="179"/>
-      <c r="AK22" s="180"/>
-      <c r="AL22" s="179"/>
-      <c r="AM22" s="180"/>
-      <c r="AN22" s="179"/>
-      <c r="AO22" s="180"/>
-      <c r="AP22" s="185"/>
-      <c r="AQ22" s="194"/>
-      <c r="AR22" s="185"/>
-      <c r="AS22" s="195"/>
-      <c r="AT22" s="195"/>
-      <c r="AU22" s="195"/>
+      <c r="A22" s="183"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="196"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="196"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="196"/>
+      <c r="P22" s="187"/>
+      <c r="Q22" s="196"/>
+      <c r="R22" s="187"/>
+      <c r="S22" s="196"/>
+      <c r="T22" s="187"/>
+      <c r="U22" s="196"/>
+      <c r="V22" s="187"/>
+      <c r="W22" s="196"/>
+      <c r="X22" s="181"/>
+      <c r="Y22" s="182"/>
+      <c r="Z22" s="181"/>
+      <c r="AA22" s="182"/>
+      <c r="AB22" s="181"/>
+      <c r="AC22" s="182"/>
+      <c r="AD22" s="181"/>
+      <c r="AE22" s="182"/>
+      <c r="AF22" s="181"/>
+      <c r="AG22" s="182"/>
+      <c r="AH22" s="181"/>
+      <c r="AI22" s="182"/>
+      <c r="AJ22" s="181"/>
+      <c r="AK22" s="182"/>
+      <c r="AL22" s="181"/>
+      <c r="AM22" s="182"/>
+      <c r="AN22" s="181"/>
+      <c r="AO22" s="182"/>
+      <c r="AP22" s="187"/>
+      <c r="AQ22" s="196"/>
+      <c r="AR22" s="187"/>
+      <c r="AS22" s="197"/>
+      <c r="AT22" s="197"/>
+      <c r="AU22" s="197"/>
     </row>
     <row r="23" spans="1:47" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="178"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="178"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
-      <c r="T23" s="178"/>
-      <c r="U23" s="178"/>
-      <c r="V23" s="178"/>
-      <c r="W23" s="178"/>
-      <c r="X23" s="178"/>
-      <c r="Y23" s="178"/>
-      <c r="Z23" s="178"/>
-      <c r="AA23" s="178"/>
-      <c r="AB23" s="178"/>
-      <c r="AC23" s="178"/>
-      <c r="AD23" s="178"/>
-      <c r="AE23" s="178"/>
-      <c r="AF23" s="178"/>
-      <c r="AG23" s="178"/>
-      <c r="AH23" s="178"/>
-      <c r="AI23" s="178"/>
-      <c r="AJ23" s="178"/>
-      <c r="AK23" s="178"/>
-      <c r="AL23" s="178"/>
-      <c r="AM23" s="178"/>
-      <c r="AN23" s="178"/>
-      <c r="AO23" s="178"/>
-      <c r="AP23" s="178"/>
-      <c r="AQ23" s="178"/>
-      <c r="AR23" s="178"/>
-      <c r="AS23" s="178"/>
-      <c r="AT23" s="178"/>
-      <c r="AU23" s="178"/>
+      <c r="A23" s="180"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="180"/>
+      <c r="Q23" s="180"/>
+      <c r="R23" s="180"/>
+      <c r="S23" s="180"/>
+      <c r="T23" s="180"/>
+      <c r="U23" s="180"/>
+      <c r="V23" s="180"/>
+      <c r="W23" s="180"/>
+      <c r="X23" s="180"/>
+      <c r="Y23" s="180"/>
+      <c r="Z23" s="180"/>
+      <c r="AA23" s="180"/>
+      <c r="AB23" s="180"/>
+      <c r="AC23" s="180"/>
+      <c r="AD23" s="180"/>
+      <c r="AE23" s="180"/>
+      <c r="AF23" s="180"/>
+      <c r="AG23" s="180"/>
+      <c r="AH23" s="180"/>
+      <c r="AI23" s="180"/>
+      <c r="AJ23" s="180"/>
+      <c r="AK23" s="180"/>
+      <c r="AL23" s="180"/>
+      <c r="AM23" s="180"/>
+      <c r="AN23" s="180"/>
+      <c r="AO23" s="180"/>
+      <c r="AP23" s="180"/>
+      <c r="AQ23" s="180"/>
+      <c r="AR23" s="180"/>
+      <c r="AS23" s="180"/>
+      <c r="AT23" s="180"/>
+      <c r="AU23" s="180"/>
     </row>
     <row r="24" spans="1:47" ht="15" customHeight="1">
-      <c r="A24" s="147"/>
-      <c r="B24" s="147"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="147"/>
-      <c r="AA24" s="147"/>
-      <c r="AB24" s="147"/>
-      <c r="AC24" s="147"/>
-      <c r="AD24" s="147"/>
-      <c r="AE24" s="147"/>
-      <c r="AF24" s="147"/>
-      <c r="AG24" s="147"/>
-      <c r="AH24" s="147"/>
-      <c r="AI24" s="147"/>
-      <c r="AJ24" s="147"/>
-      <c r="AK24" s="147"/>
-      <c r="AL24" s="147"/>
-      <c r="AM24" s="147"/>
-      <c r="AN24" s="147"/>
-      <c r="AO24" s="147"/>
-      <c r="AP24" s="147"/>
-      <c r="AQ24" s="147"/>
-      <c r="AR24" s="147"/>
-      <c r="AS24" s="147"/>
-      <c r="AT24" s="147"/>
-      <c r="AU24" s="147"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="179"/>
+      <c r="M24" s="179"/>
+      <c r="N24" s="179"/>
+      <c r="O24" s="179"/>
+      <c r="P24" s="179"/>
+      <c r="Q24" s="179"/>
+      <c r="R24" s="179"/>
+      <c r="S24" s="179"/>
+      <c r="T24" s="179"/>
+      <c r="U24" s="179"/>
+      <c r="V24" s="179"/>
+      <c r="W24" s="179"/>
+      <c r="X24" s="179"/>
+      <c r="Y24" s="179"/>
+      <c r="Z24" s="179"/>
+      <c r="AA24" s="179"/>
+      <c r="AB24" s="179"/>
+      <c r="AC24" s="179"/>
+      <c r="AD24" s="179"/>
+      <c r="AE24" s="179"/>
+      <c r="AF24" s="179"/>
+      <c r="AG24" s="179"/>
+      <c r="AH24" s="179"/>
+      <c r="AI24" s="179"/>
+      <c r="AJ24" s="179"/>
+      <c r="AK24" s="179"/>
+      <c r="AL24" s="179"/>
+      <c r="AM24" s="179"/>
+      <c r="AN24" s="179"/>
+      <c r="AO24" s="179"/>
+      <c r="AP24" s="179"/>
+      <c r="AQ24" s="179"/>
+      <c r="AR24" s="179"/>
+      <c r="AS24" s="179"/>
+      <c r="AT24" s="179"/>
+      <c r="AU24" s="179"/>
     </row>
     <row r="25" spans="1:47" ht="15" customHeight="1">
       <c r="A25" s="11"/>
@@ -61902,45 +61891,45 @@
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="193"/>
+      <c r="D27" s="195"/>
       <c r="E27" s="44"/>
-      <c r="F27" s="193"/>
+      <c r="F27" s="195"/>
       <c r="G27" s="44"/>
-      <c r="H27" s="193"/>
+      <c r="H27" s="195"/>
       <c r="I27" s="44"/>
-      <c r="J27" s="193"/>
+      <c r="J27" s="195"/>
       <c r="K27" s="44"/>
-      <c r="L27" s="193"/>
+      <c r="L27" s="195"/>
       <c r="M27" s="44"/>
-      <c r="N27" s="193"/>
+      <c r="N27" s="195"/>
       <c r="O27" s="44"/>
-      <c r="P27" s="193"/>
+      <c r="P27" s="195"/>
       <c r="Q27" s="44"/>
-      <c r="R27" s="191"/>
-      <c r="S27" s="192"/>
-      <c r="T27" s="193"/>
+      <c r="R27" s="193"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="195"/>
       <c r="U27" s="44"/>
-      <c r="V27" s="191"/>
-      <c r="W27" s="192"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="192"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="192"/>
-      <c r="AB27" s="191"/>
-      <c r="AC27" s="192"/>
-      <c r="AD27" s="191"/>
-      <c r="AE27" s="192"/>
-      <c r="AF27" s="191"/>
-      <c r="AG27" s="192"/>
-      <c r="AH27" s="191"/>
-      <c r="AI27" s="192"/>
-      <c r="AJ27" s="191"/>
-      <c r="AK27" s="192"/>
-      <c r="AL27" s="191"/>
-      <c r="AM27" s="192"/>
-      <c r="AN27" s="191"/>
-      <c r="AO27" s="192"/>
-      <c r="AP27" s="193"/>
+      <c r="V27" s="193"/>
+      <c r="W27" s="194"/>
+      <c r="X27" s="193"/>
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="193"/>
+      <c r="AA27" s="194"/>
+      <c r="AB27" s="193"/>
+      <c r="AC27" s="194"/>
+      <c r="AD27" s="193"/>
+      <c r="AE27" s="194"/>
+      <c r="AF27" s="193"/>
+      <c r="AG27" s="194"/>
+      <c r="AH27" s="193"/>
+      <c r="AI27" s="194"/>
+      <c r="AJ27" s="193"/>
+      <c r="AK27" s="194"/>
+      <c r="AL27" s="193"/>
+      <c r="AM27" s="194"/>
+      <c r="AN27" s="193"/>
+      <c r="AO27" s="194"/>
+      <c r="AP27" s="195"/>
       <c r="AQ27" s="44"/>
       <c r="AR27" s="102"/>
       <c r="AS27" s="103"/>
@@ -61948,53 +61937,53 @@
       <c r="AU27" s="103"/>
     </row>
     <row r="28" spans="1:47" ht="15" customHeight="1">
-      <c r="A28" s="181"/>
-      <c r="B28" s="182"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="184"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="184"/>
-      <c r="U28" s="184"/>
-      <c r="V28" s="184"/>
-      <c r="W28" s="184"/>
-      <c r="X28" s="190"/>
-      <c r="Y28" s="190"/>
-      <c r="Z28" s="190"/>
-      <c r="AA28" s="190"/>
-      <c r="AB28" s="190"/>
-      <c r="AC28" s="190"/>
-      <c r="AD28" s="190"/>
-      <c r="AE28" s="190"/>
-      <c r="AF28" s="190"/>
-      <c r="AG28" s="190"/>
-      <c r="AH28" s="190"/>
-      <c r="AI28" s="190"/>
-      <c r="AJ28" s="190"/>
-      <c r="AK28" s="190"/>
-      <c r="AL28" s="190"/>
-      <c r="AM28" s="190"/>
-      <c r="AN28" s="190"/>
-      <c r="AO28" s="190"/>
-      <c r="AP28" s="184"/>
-      <c r="AQ28" s="184"/>
-      <c r="AR28" s="185"/>
-      <c r="AS28" s="186"/>
-      <c r="AT28" s="186"/>
-      <c r="AU28" s="186"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186"/>
+      <c r="L28" s="186"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="186"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="186"/>
+      <c r="S28" s="186"/>
+      <c r="T28" s="186"/>
+      <c r="U28" s="186"/>
+      <c r="V28" s="186"/>
+      <c r="W28" s="186"/>
+      <c r="X28" s="192"/>
+      <c r="Y28" s="192"/>
+      <c r="Z28" s="192"/>
+      <c r="AA28" s="192"/>
+      <c r="AB28" s="192"/>
+      <c r="AC28" s="192"/>
+      <c r="AD28" s="192"/>
+      <c r="AE28" s="192"/>
+      <c r="AF28" s="192"/>
+      <c r="AG28" s="192"/>
+      <c r="AH28" s="192"/>
+      <c r="AI28" s="192"/>
+      <c r="AJ28" s="192"/>
+      <c r="AK28" s="192"/>
+      <c r="AL28" s="192"/>
+      <c r="AM28" s="192"/>
+      <c r="AN28" s="192"/>
+      <c r="AO28" s="192"/>
+      <c r="AP28" s="186"/>
+      <c r="AQ28" s="186"/>
+      <c r="AR28" s="187"/>
+      <c r="AS28" s="188"/>
+      <c r="AT28" s="188"/>
+      <c r="AU28" s="188"/>
     </row>
     <row r="29" spans="1:47" ht="15" customHeight="1">
       <c r="A29" s="68"/>
@@ -62095,298 +62084,298 @@
       <c r="AU30" s="76"/>
     </row>
     <row r="31" spans="1:47" ht="15" customHeight="1">
-      <c r="A31" s="181"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="184"/>
-      <c r="S31" s="184"/>
-      <c r="T31" s="184"/>
-      <c r="U31" s="184"/>
-      <c r="V31" s="184"/>
-      <c r="W31" s="184"/>
-      <c r="X31" s="179"/>
-      <c r="Y31" s="180"/>
-      <c r="Z31" s="179"/>
-      <c r="AA31" s="180"/>
-      <c r="AB31" s="179"/>
-      <c r="AC31" s="180"/>
-      <c r="AD31" s="179"/>
-      <c r="AE31" s="180"/>
-      <c r="AF31" s="179"/>
-      <c r="AG31" s="180"/>
-      <c r="AH31" s="179"/>
-      <c r="AI31" s="180"/>
-      <c r="AJ31" s="179"/>
-      <c r="AK31" s="180"/>
-      <c r="AL31" s="179"/>
-      <c r="AM31" s="180"/>
-      <c r="AN31" s="179"/>
-      <c r="AO31" s="180"/>
-      <c r="AP31" s="184"/>
-      <c r="AQ31" s="184"/>
-      <c r="AR31" s="185"/>
-      <c r="AS31" s="186"/>
-      <c r="AT31" s="186"/>
-      <c r="AU31" s="186"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="186"/>
+      <c r="L31" s="186"/>
+      <c r="M31" s="186"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="186"/>
+      <c r="V31" s="186"/>
+      <c r="W31" s="186"/>
+      <c r="X31" s="181"/>
+      <c r="Y31" s="182"/>
+      <c r="Z31" s="181"/>
+      <c r="AA31" s="182"/>
+      <c r="AB31" s="181"/>
+      <c r="AC31" s="182"/>
+      <c r="AD31" s="181"/>
+      <c r="AE31" s="182"/>
+      <c r="AF31" s="181"/>
+      <c r="AG31" s="182"/>
+      <c r="AH31" s="181"/>
+      <c r="AI31" s="182"/>
+      <c r="AJ31" s="181"/>
+      <c r="AK31" s="182"/>
+      <c r="AL31" s="181"/>
+      <c r="AM31" s="182"/>
+      <c r="AN31" s="181"/>
+      <c r="AO31" s="182"/>
+      <c r="AP31" s="186"/>
+      <c r="AQ31" s="186"/>
+      <c r="AR31" s="187"/>
+      <c r="AS31" s="188"/>
+      <c r="AT31" s="188"/>
+      <c r="AU31" s="188"/>
     </row>
     <row r="32" spans="1:47" ht="15" customHeight="1">
       <c r="A32" s="68"/>
       <c r="B32" s="79"/>
       <c r="C32" s="80"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="189"/>
-      <c r="M32" s="189"/>
-      <c r="N32" s="189"/>
-      <c r="O32" s="189"/>
-      <c r="P32" s="189"/>
-      <c r="Q32" s="189"/>
-      <c r="R32" s="189"/>
-      <c r="S32" s="189"/>
-      <c r="T32" s="189"/>
-      <c r="U32" s="189"/>
-      <c r="V32" s="189"/>
-      <c r="W32" s="189"/>
-      <c r="X32" s="187"/>
-      <c r="Y32" s="188"/>
-      <c r="Z32" s="187"/>
-      <c r="AA32" s="188"/>
-      <c r="AB32" s="187"/>
-      <c r="AC32" s="188"/>
-      <c r="AD32" s="187"/>
-      <c r="AE32" s="188"/>
-      <c r="AF32" s="187"/>
-      <c r="AG32" s="188"/>
-      <c r="AH32" s="187"/>
-      <c r="AI32" s="188"/>
-      <c r="AJ32" s="187"/>
-      <c r="AK32" s="188"/>
-      <c r="AL32" s="187"/>
-      <c r="AM32" s="188"/>
-      <c r="AN32" s="187"/>
-      <c r="AO32" s="188"/>
-      <c r="AP32" s="189"/>
-      <c r="AQ32" s="189"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="191"/>
+      <c r="Q32" s="191"/>
+      <c r="R32" s="191"/>
+      <c r="S32" s="191"/>
+      <c r="T32" s="191"/>
+      <c r="U32" s="191"/>
+      <c r="V32" s="191"/>
+      <c r="W32" s="191"/>
+      <c r="X32" s="189"/>
+      <c r="Y32" s="190"/>
+      <c r="Z32" s="189"/>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="189"/>
+      <c r="AC32" s="190"/>
+      <c r="AD32" s="189"/>
+      <c r="AE32" s="190"/>
+      <c r="AF32" s="189"/>
+      <c r="AG32" s="190"/>
+      <c r="AH32" s="189"/>
+      <c r="AI32" s="190"/>
+      <c r="AJ32" s="189"/>
+      <c r="AK32" s="190"/>
+      <c r="AL32" s="189"/>
+      <c r="AM32" s="190"/>
+      <c r="AN32" s="189"/>
+      <c r="AO32" s="190"/>
+      <c r="AP32" s="191"/>
+      <c r="AQ32" s="191"/>
       <c r="AR32" s="59"/>
       <c r="AS32" s="76"/>
       <c r="AT32" s="76"/>
       <c r="AU32" s="76"/>
     </row>
     <row r="33" spans="1:47" ht="15" customHeight="1">
-      <c r="A33" s="181"/>
-      <c r="B33" s="182"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="184"/>
-      <c r="O33" s="184"/>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="184"/>
-      <c r="S33" s="184"/>
-      <c r="T33" s="184"/>
-      <c r="U33" s="184"/>
-      <c r="V33" s="184"/>
-      <c r="W33" s="184"/>
-      <c r="X33" s="179"/>
-      <c r="Y33" s="180"/>
-      <c r="Z33" s="179"/>
-      <c r="AA33" s="180"/>
-      <c r="AB33" s="179"/>
-      <c r="AC33" s="180"/>
-      <c r="AD33" s="179"/>
-      <c r="AE33" s="180"/>
-      <c r="AF33" s="179"/>
-      <c r="AG33" s="180"/>
-      <c r="AH33" s="179"/>
-      <c r="AI33" s="180"/>
-      <c r="AJ33" s="179"/>
-      <c r="AK33" s="180"/>
-      <c r="AL33" s="179"/>
-      <c r="AM33" s="180"/>
-      <c r="AN33" s="179"/>
-      <c r="AO33" s="180"/>
-      <c r="AP33" s="184"/>
-      <c r="AQ33" s="184"/>
-      <c r="AR33" s="185"/>
-      <c r="AS33" s="186"/>
-      <c r="AT33" s="186"/>
-      <c r="AU33" s="186"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="186"/>
+      <c r="L33" s="186"/>
+      <c r="M33" s="186"/>
+      <c r="N33" s="186"/>
+      <c r="O33" s="186"/>
+      <c r="P33" s="186"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="186"/>
+      <c r="S33" s="186"/>
+      <c r="T33" s="186"/>
+      <c r="U33" s="186"/>
+      <c r="V33" s="186"/>
+      <c r="W33" s="186"/>
+      <c r="X33" s="181"/>
+      <c r="Y33" s="182"/>
+      <c r="Z33" s="181"/>
+      <c r="AA33" s="182"/>
+      <c r="AB33" s="181"/>
+      <c r="AC33" s="182"/>
+      <c r="AD33" s="181"/>
+      <c r="AE33" s="182"/>
+      <c r="AF33" s="181"/>
+      <c r="AG33" s="182"/>
+      <c r="AH33" s="181"/>
+      <c r="AI33" s="182"/>
+      <c r="AJ33" s="181"/>
+      <c r="AK33" s="182"/>
+      <c r="AL33" s="181"/>
+      <c r="AM33" s="182"/>
+      <c r="AN33" s="181"/>
+      <c r="AO33" s="182"/>
+      <c r="AP33" s="186"/>
+      <c r="AQ33" s="186"/>
+      <c r="AR33" s="187"/>
+      <c r="AS33" s="188"/>
+      <c r="AT33" s="188"/>
+      <c r="AU33" s="188"/>
     </row>
     <row r="34" spans="1:47" ht="15" customHeight="1">
       <c r="A34" s="68"/>
       <c r="B34" s="79"/>
       <c r="C34" s="80"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="189"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="189"/>
-      <c r="M34" s="189"/>
-      <c r="N34" s="189"/>
-      <c r="O34" s="189"/>
-      <c r="P34" s="189"/>
-      <c r="Q34" s="189"/>
-      <c r="R34" s="189"/>
-      <c r="S34" s="189"/>
-      <c r="T34" s="189"/>
-      <c r="U34" s="189"/>
-      <c r="V34" s="189"/>
-      <c r="W34" s="189"/>
-      <c r="X34" s="187"/>
-      <c r="Y34" s="188"/>
-      <c r="Z34" s="187"/>
-      <c r="AA34" s="188"/>
-      <c r="AB34" s="187"/>
-      <c r="AC34" s="188"/>
-      <c r="AD34" s="187"/>
-      <c r="AE34" s="188"/>
-      <c r="AF34" s="187"/>
-      <c r="AG34" s="188"/>
-      <c r="AH34" s="187"/>
-      <c r="AI34" s="188"/>
-      <c r="AJ34" s="187"/>
-      <c r="AK34" s="188"/>
-      <c r="AL34" s="187"/>
-      <c r="AM34" s="188"/>
-      <c r="AN34" s="187"/>
-      <c r="AO34" s="188"/>
-      <c r="AP34" s="189"/>
-      <c r="AQ34" s="189"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="191"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="191"/>
+      <c r="O34" s="191"/>
+      <c r="P34" s="191"/>
+      <c r="Q34" s="191"/>
+      <c r="R34" s="191"/>
+      <c r="S34" s="191"/>
+      <c r="T34" s="191"/>
+      <c r="U34" s="191"/>
+      <c r="V34" s="191"/>
+      <c r="W34" s="191"/>
+      <c r="X34" s="189"/>
+      <c r="Y34" s="190"/>
+      <c r="Z34" s="189"/>
+      <c r="AA34" s="190"/>
+      <c r="AB34" s="189"/>
+      <c r="AC34" s="190"/>
+      <c r="AD34" s="189"/>
+      <c r="AE34" s="190"/>
+      <c r="AF34" s="189"/>
+      <c r="AG34" s="190"/>
+      <c r="AH34" s="189"/>
+      <c r="AI34" s="190"/>
+      <c r="AJ34" s="189"/>
+      <c r="AK34" s="190"/>
+      <c r="AL34" s="189"/>
+      <c r="AM34" s="190"/>
+      <c r="AN34" s="189"/>
+      <c r="AO34" s="190"/>
+      <c r="AP34" s="191"/>
+      <c r="AQ34" s="191"/>
       <c r="AR34" s="59"/>
       <c r="AS34" s="76"/>
       <c r="AT34" s="76"/>
       <c r="AU34" s="76"/>
     </row>
     <row r="35" spans="1:47" ht="15" customHeight="1">
-      <c r="A35" s="181"/>
-      <c r="B35" s="182"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="184"/>
-      <c r="K35" s="184"/>
-      <c r="L35" s="184"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="184"/>
-      <c r="O35" s="184"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="184"/>
-      <c r="R35" s="184"/>
-      <c r="S35" s="184"/>
-      <c r="T35" s="184"/>
-      <c r="U35" s="184"/>
-      <c r="V35" s="184"/>
-      <c r="W35" s="184"/>
-      <c r="X35" s="179"/>
-      <c r="Y35" s="180"/>
-      <c r="Z35" s="179"/>
-      <c r="AA35" s="180"/>
-      <c r="AB35" s="179"/>
-      <c r="AC35" s="180"/>
-      <c r="AD35" s="179"/>
-      <c r="AE35" s="180"/>
-      <c r="AF35" s="179"/>
-      <c r="AG35" s="180"/>
-      <c r="AH35" s="179"/>
-      <c r="AI35" s="180"/>
-      <c r="AJ35" s="179"/>
-      <c r="AK35" s="180"/>
-      <c r="AL35" s="179"/>
-      <c r="AM35" s="180"/>
-      <c r="AN35" s="179"/>
-      <c r="AO35" s="180"/>
-      <c r="AP35" s="184"/>
-      <c r="AQ35" s="184"/>
-      <c r="AR35" s="185"/>
-      <c r="AS35" s="186"/>
-      <c r="AT35" s="186"/>
-      <c r="AU35" s="186"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="186"/>
+      <c r="L35" s="186"/>
+      <c r="M35" s="186"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="186"/>
+      <c r="S35" s="186"/>
+      <c r="T35" s="186"/>
+      <c r="U35" s="186"/>
+      <c r="V35" s="186"/>
+      <c r="W35" s="186"/>
+      <c r="X35" s="181"/>
+      <c r="Y35" s="182"/>
+      <c r="Z35" s="181"/>
+      <c r="AA35" s="182"/>
+      <c r="AB35" s="181"/>
+      <c r="AC35" s="182"/>
+      <c r="AD35" s="181"/>
+      <c r="AE35" s="182"/>
+      <c r="AF35" s="181"/>
+      <c r="AG35" s="182"/>
+      <c r="AH35" s="181"/>
+      <c r="AI35" s="182"/>
+      <c r="AJ35" s="181"/>
+      <c r="AK35" s="182"/>
+      <c r="AL35" s="181"/>
+      <c r="AM35" s="182"/>
+      <c r="AN35" s="181"/>
+      <c r="AO35" s="182"/>
+      <c r="AP35" s="186"/>
+      <c r="AQ35" s="186"/>
+      <c r="AR35" s="187"/>
+      <c r="AS35" s="188"/>
+      <c r="AT35" s="188"/>
+      <c r="AU35" s="188"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1">
-      <c r="A36" s="181"/>
-      <c r="B36" s="182"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
-      <c r="I36" s="184"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="184"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
-      <c r="N36" s="184"/>
-      <c r="O36" s="184"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="184"/>
-      <c r="R36" s="184"/>
-      <c r="S36" s="184"/>
-      <c r="T36" s="184"/>
-      <c r="U36" s="184"/>
-      <c r="V36" s="184"/>
-      <c r="W36" s="184"/>
-      <c r="X36" s="179"/>
-      <c r="Y36" s="180"/>
-      <c r="Z36" s="179"/>
-      <c r="AA36" s="180"/>
-      <c r="AB36" s="179"/>
-      <c r="AC36" s="180"/>
-      <c r="AD36" s="179"/>
-      <c r="AE36" s="180"/>
-      <c r="AF36" s="179"/>
-      <c r="AG36" s="180"/>
-      <c r="AH36" s="179"/>
-      <c r="AI36" s="180"/>
-      <c r="AJ36" s="179"/>
-      <c r="AK36" s="180"/>
-      <c r="AL36" s="179"/>
-      <c r="AM36" s="180"/>
-      <c r="AN36" s="179"/>
-      <c r="AO36" s="180"/>
-      <c r="AP36" s="184"/>
-      <c r="AQ36" s="184"/>
-      <c r="AR36" s="185"/>
-      <c r="AS36" s="186"/>
-      <c r="AT36" s="186"/>
-      <c r="AU36" s="186"/>
+      <c r="A36" s="183"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="186"/>
+      <c r="L36" s="186"/>
+      <c r="M36" s="186"/>
+      <c r="N36" s="186"/>
+      <c r="O36" s="186"/>
+      <c r="P36" s="186"/>
+      <c r="Q36" s="186"/>
+      <c r="R36" s="186"/>
+      <c r="S36" s="186"/>
+      <c r="T36" s="186"/>
+      <c r="U36" s="186"/>
+      <c r="V36" s="186"/>
+      <c r="W36" s="186"/>
+      <c r="X36" s="181"/>
+      <c r="Y36" s="182"/>
+      <c r="Z36" s="181"/>
+      <c r="AA36" s="182"/>
+      <c r="AB36" s="181"/>
+      <c r="AC36" s="182"/>
+      <c r="AD36" s="181"/>
+      <c r="AE36" s="182"/>
+      <c r="AF36" s="181"/>
+      <c r="AG36" s="182"/>
+      <c r="AH36" s="181"/>
+      <c r="AI36" s="182"/>
+      <c r="AJ36" s="181"/>
+      <c r="AK36" s="182"/>
+      <c r="AL36" s="181"/>
+      <c r="AM36" s="182"/>
+      <c r="AN36" s="181"/>
+      <c r="AO36" s="182"/>
+      <c r="AP36" s="186"/>
+      <c r="AQ36" s="186"/>
+      <c r="AR36" s="187"/>
+      <c r="AS36" s="188"/>
+      <c r="AT36" s="188"/>
+      <c r="AU36" s="188"/>
     </row>
     <row r="37" spans="1:47" ht="15" customHeight="1">
       <c r="A37" s="68"/>
